--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(Webサービス)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(Webサービス)_サンプル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B74E16-31EB-4E20-922C-B9080008C3D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA1652E-FCA0-4F78-B705-55A04E28AC57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,10 +927,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>testAbnormalEnd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1453,14 +1449,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>testNoramlEnd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testNormalEnd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>振込結果応答電文に出力するデータの取得元がシステム機能設計書通りである。</t>
     <rPh sb="0" eb="2">
       <t>フリコミ</t>
@@ -1514,6 +1502,18 @@
     <rPh sb="28" eb="30">
       <t>シュツリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXActionTest#testAbnormalEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXActionTest#testNoramlEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXActionTest#testNormalEnd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2215,7 +2215,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -2616,201 +2616,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2993,9 +2798,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3016,6 +2818,207 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -6596,7 +6599,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -6608,12 +6611,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="154">
+      <c r="I25" s="225">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44011</v>
       </c>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="225"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -7169,57 +7172,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="254" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="257" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="263" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="170" t="s">
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="272" t="s">
+        <v>181</v>
+      </c>
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="254" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="179" t="s">
-        <v>182</v>
-      </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="161" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="188" t="str">
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="281" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="248">
         <f>IF(D8="","",D8)</f>
         <v>44011</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="249"/>
+      <c r="AI1" s="250"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7227,53 +7230,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="254" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="257" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="254" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="161" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="167" t="str">
+      <c r="AB2" s="256"/>
+      <c r="AC2" s="260" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
+      <c r="AF2" s="262"/>
+      <c r="AG2" s="248" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="250"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7281,45 +7284,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="164" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="188"/>
-      <c r="AD3" s="189"/>
-      <c r="AE3" s="189"/>
-      <c r="AF3" s="190"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="A3" s="254" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="257" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="270"/>
+      <c r="Q3" s="270"/>
+      <c r="R3" s="271"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="280"/>
+      <c r="AA3" s="254"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="248"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="250"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7328,7 +7331,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -7354,101 +7357,101 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="C7" s="252"/>
+      <c r="D7" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="158" t="s">
+      <c r="E7" s="253"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="253"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="251" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="158" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="158" t="s">
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="251" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="158" t="s">
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="252"/>
+      <c r="AF7" s="251" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="158" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="159"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="252"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="239" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241">
+        <v>44011</v>
+      </c>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="239" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="205">
-        <v>44011</v>
-      </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="203" t="s">
+      <c r="H8" s="244"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="245" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="208"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="209" t="s">
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="247"/>
+      <c r="Q8" s="245" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="209" t="s">
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="69" t="s">
         <v>163</v>
-      </c>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="211"/>
-      <c r="AF8" s="69" t="s">
-        <v>164</v>
       </c>
       <c r="AG8" s="70"/>
       <c r="AH8" s="70"/>
@@ -7456,1089 +7459,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="191"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="201"/>
-      <c r="S9" s="201"/>
-      <c r="T9" s="201"/>
-      <c r="U9" s="201"/>
-      <c r="V9" s="201"/>
-      <c r="W9" s="201"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="201"/>
-      <c r="Z9" s="201"/>
-      <c r="AA9" s="201"/>
-      <c r="AB9" s="201"/>
-      <c r="AC9" s="201"/>
-      <c r="AD9" s="201"/>
-      <c r="AE9" s="202"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="198"/>
-      <c r="AI9" s="199"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="234"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="236"/>
+      <c r="S9" s="236"/>
+      <c r="T9" s="236"/>
+      <c r="U9" s="236"/>
+      <c r="V9" s="236"/>
+      <c r="W9" s="236"/>
+      <c r="X9" s="236"/>
+      <c r="Y9" s="236"/>
+      <c r="Z9" s="236"/>
+      <c r="AA9" s="236"/>
+      <c r="AB9" s="236"/>
+      <c r="AC9" s="236"/>
+      <c r="AD9" s="236"/>
+      <c r="AE9" s="237"/>
+      <c r="AF9" s="232"/>
+      <c r="AG9" s="233"/>
+      <c r="AH9" s="233"/>
+      <c r="AI9" s="234"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="201"/>
-      <c r="S10" s="201"/>
-      <c r="T10" s="201"/>
-      <c r="U10" s="201"/>
-      <c r="V10" s="201"/>
-      <c r="W10" s="201"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="201"/>
-      <c r="Z10" s="201"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="201"/>
-      <c r="AC10" s="201"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="202"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="199"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="233"/>
+      <c r="L10" s="233"/>
+      <c r="M10" s="233"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="234"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="236"/>
+      <c r="W10" s="236"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="236"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
+      <c r="AB10" s="236"/>
+      <c r="AC10" s="236"/>
+      <c r="AD10" s="236"/>
+      <c r="AE10" s="237"/>
+      <c r="AF10" s="232"/>
+      <c r="AG10" s="233"/>
+      <c r="AH10" s="233"/>
+      <c r="AI10" s="234"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201"/>
-      <c r="Z11" s="201"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="201"/>
-      <c r="AC11" s="201"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="202"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="199"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="233"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="233"/>
+      <c r="N11" s="233"/>
+      <c r="O11" s="233"/>
+      <c r="P11" s="234"/>
+      <c r="Q11" s="235"/>
+      <c r="R11" s="236"/>
+      <c r="S11" s="236"/>
+      <c r="T11" s="236"/>
+      <c r="U11" s="236"/>
+      <c r="V11" s="236"/>
+      <c r="W11" s="236"/>
+      <c r="X11" s="236"/>
+      <c r="Y11" s="236"/>
+      <c r="Z11" s="236"/>
+      <c r="AA11" s="236"/>
+      <c r="AB11" s="236"/>
+      <c r="AC11" s="236"/>
+      <c r="AD11" s="236"/>
+      <c r="AE11" s="237"/>
+      <c r="AF11" s="232"/>
+      <c r="AG11" s="233"/>
+      <c r="AH11" s="233"/>
+      <c r="AI11" s="234"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="191"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="201"/>
-      <c r="S12" s="201"/>
-      <c r="T12" s="201"/>
-      <c r="U12" s="201"/>
-      <c r="V12" s="201"/>
-      <c r="W12" s="201"/>
-      <c r="X12" s="201"/>
-      <c r="Y12" s="201"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="201"/>
-      <c r="AB12" s="201"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="201"/>
-      <c r="AE12" s="202"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="199"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="233"/>
+      <c r="O12" s="233"/>
+      <c r="P12" s="234"/>
+      <c r="Q12" s="235"/>
+      <c r="R12" s="236"/>
+      <c r="S12" s="236"/>
+      <c r="T12" s="236"/>
+      <c r="U12" s="236"/>
+      <c r="V12" s="236"/>
+      <c r="W12" s="236"/>
+      <c r="X12" s="236"/>
+      <c r="Y12" s="236"/>
+      <c r="Z12" s="236"/>
+      <c r="AA12" s="236"/>
+      <c r="AB12" s="236"/>
+      <c r="AC12" s="236"/>
+      <c r="AD12" s="236"/>
+      <c r="AE12" s="237"/>
+      <c r="AF12" s="232"/>
+      <c r="AG12" s="233"/>
+      <c r="AH12" s="233"/>
+      <c r="AI12" s="234"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
-      <c r="U13" s="201"/>
-      <c r="V13" s="201"/>
-      <c r="W13" s="201"/>
-      <c r="X13" s="201"/>
-      <c r="Y13" s="201"/>
-      <c r="Z13" s="201"/>
-      <c r="AA13" s="201"/>
-      <c r="AB13" s="201"/>
-      <c r="AC13" s="201"/>
-      <c r="AD13" s="201"/>
-      <c r="AE13" s="202"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="199"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="233"/>
+      <c r="L13" s="233"/>
+      <c r="M13" s="233"/>
+      <c r="N13" s="233"/>
+      <c r="O13" s="233"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="236"/>
+      <c r="S13" s="236"/>
+      <c r="T13" s="236"/>
+      <c r="U13" s="236"/>
+      <c r="V13" s="236"/>
+      <c r="W13" s="236"/>
+      <c r="X13" s="236"/>
+      <c r="Y13" s="236"/>
+      <c r="Z13" s="236"/>
+      <c r="AA13" s="236"/>
+      <c r="AB13" s="236"/>
+      <c r="AC13" s="236"/>
+      <c r="AD13" s="236"/>
+      <c r="AE13" s="237"/>
+      <c r="AF13" s="232"/>
+      <c r="AG13" s="233"/>
+      <c r="AH13" s="233"/>
+      <c r="AI13" s="234"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="201"/>
-      <c r="S14" s="201"/>
-      <c r="T14" s="201"/>
-      <c r="U14" s="201"/>
-      <c r="V14" s="201"/>
-      <c r="W14" s="201"/>
-      <c r="X14" s="201"/>
-      <c r="Y14" s="201"/>
-      <c r="Z14" s="201"/>
-      <c r="AA14" s="201"/>
-      <c r="AB14" s="201"/>
-      <c r="AC14" s="201"/>
-      <c r="AD14" s="201"/>
-      <c r="AE14" s="202"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="199"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="233"/>
+      <c r="M14" s="233"/>
+      <c r="N14" s="233"/>
+      <c r="O14" s="233"/>
+      <c r="P14" s="234"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="236"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="236"/>
+      <c r="V14" s="236"/>
+      <c r="W14" s="236"/>
+      <c r="X14" s="236"/>
+      <c r="Y14" s="236"/>
+      <c r="Z14" s="236"/>
+      <c r="AA14" s="236"/>
+      <c r="AB14" s="236"/>
+      <c r="AC14" s="236"/>
+      <c r="AD14" s="236"/>
+      <c r="AE14" s="237"/>
+      <c r="AF14" s="232"/>
+      <c r="AG14" s="233"/>
+      <c r="AH14" s="233"/>
+      <c r="AI14" s="234"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="201"/>
-      <c r="S15" s="201"/>
-      <c r="T15" s="201"/>
-      <c r="U15" s="201"/>
-      <c r="V15" s="201"/>
-      <c r="W15" s="201"/>
-      <c r="X15" s="201"/>
-      <c r="Y15" s="201"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="201"/>
-      <c r="AC15" s="201"/>
-      <c r="AD15" s="201"/>
-      <c r="AE15" s="202"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="199"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="233"/>
+      <c r="M15" s="233"/>
+      <c r="N15" s="233"/>
+      <c r="O15" s="233"/>
+      <c r="P15" s="234"/>
+      <c r="Q15" s="235"/>
+      <c r="R15" s="236"/>
+      <c r="S15" s="236"/>
+      <c r="T15" s="236"/>
+      <c r="U15" s="236"/>
+      <c r="V15" s="236"/>
+      <c r="W15" s="236"/>
+      <c r="X15" s="236"/>
+      <c r="Y15" s="236"/>
+      <c r="Z15" s="236"/>
+      <c r="AA15" s="236"/>
+      <c r="AB15" s="236"/>
+      <c r="AC15" s="236"/>
+      <c r="AD15" s="236"/>
+      <c r="AE15" s="237"/>
+      <c r="AF15" s="232"/>
+      <c r="AG15" s="233"/>
+      <c r="AH15" s="233"/>
+      <c r="AI15" s="234"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="191"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="200"/>
-      <c r="R16" s="201"/>
-      <c r="S16" s="201"/>
-      <c r="T16" s="201"/>
-      <c r="U16" s="201"/>
-      <c r="V16" s="201"/>
-      <c r="W16" s="201"/>
-      <c r="X16" s="201"/>
-      <c r="Y16" s="201"/>
-      <c r="Z16" s="201"/>
-      <c r="AA16" s="201"/>
-      <c r="AB16" s="201"/>
-      <c r="AC16" s="201"/>
-      <c r="AD16" s="201"/>
-      <c r="AE16" s="202"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="199"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="233"/>
+      <c r="L16" s="233"/>
+      <c r="M16" s="233"/>
+      <c r="N16" s="233"/>
+      <c r="O16" s="233"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="235"/>
+      <c r="R16" s="236"/>
+      <c r="S16" s="236"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="236"/>
+      <c r="W16" s="236"/>
+      <c r="X16" s="236"/>
+      <c r="Y16" s="236"/>
+      <c r="Z16" s="236"/>
+      <c r="AA16" s="236"/>
+      <c r="AB16" s="236"/>
+      <c r="AC16" s="236"/>
+      <c r="AD16" s="236"/>
+      <c r="AE16" s="237"/>
+      <c r="AF16" s="232"/>
+      <c r="AG16" s="233"/>
+      <c r="AH16" s="233"/>
+      <c r="AI16" s="234"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
-      <c r="O17" s="198"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="201"/>
-      <c r="S17" s="201"/>
-      <c r="T17" s="201"/>
-      <c r="U17" s="201"/>
-      <c r="V17" s="201"/>
-      <c r="W17" s="201"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="201"/>
-      <c r="AA17" s="201"/>
-      <c r="AB17" s="201"/>
-      <c r="AC17" s="201"/>
-      <c r="AD17" s="201"/>
-      <c r="AE17" s="202"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="199"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="234"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="236"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="236"/>
+      <c r="Z17" s="236"/>
+      <c r="AA17" s="236"/>
+      <c r="AB17" s="236"/>
+      <c r="AC17" s="236"/>
+      <c r="AD17" s="236"/>
+      <c r="AE17" s="237"/>
+      <c r="AF17" s="232"/>
+      <c r="AG17" s="233"/>
+      <c r="AH17" s="233"/>
+      <c r="AI17" s="234"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="201"/>
-      <c r="S18" s="201"/>
-      <c r="T18" s="201"/>
-      <c r="U18" s="201"/>
-      <c r="V18" s="201"/>
-      <c r="W18" s="201"/>
-      <c r="X18" s="201"/>
-      <c r="Y18" s="201"/>
-      <c r="Z18" s="201"/>
-      <c r="AA18" s="201"/>
-      <c r="AB18" s="201"/>
-      <c r="AC18" s="201"/>
-      <c r="AD18" s="201"/>
-      <c r="AE18" s="202"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="199"/>
+      <c r="B18" s="226"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="230"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="227"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="233"/>
+      <c r="O18" s="233"/>
+      <c r="P18" s="234"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="236"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="236"/>
+      <c r="W18" s="236"/>
+      <c r="X18" s="236"/>
+      <c r="Y18" s="236"/>
+      <c r="Z18" s="236"/>
+      <c r="AA18" s="236"/>
+      <c r="AB18" s="236"/>
+      <c r="AC18" s="236"/>
+      <c r="AD18" s="236"/>
+      <c r="AE18" s="237"/>
+      <c r="AF18" s="232"/>
+      <c r="AG18" s="233"/>
+      <c r="AH18" s="233"/>
+      <c r="AI18" s="234"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="201"/>
-      <c r="S19" s="201"/>
-      <c r="T19" s="201"/>
-      <c r="U19" s="201"/>
-      <c r="V19" s="201"/>
-      <c r="W19" s="201"/>
-      <c r="X19" s="201"/>
-      <c r="Y19" s="201"/>
-      <c r="Z19" s="201"/>
-      <c r="AA19" s="201"/>
-      <c r="AB19" s="201"/>
-      <c r="AC19" s="201"/>
-      <c r="AD19" s="201"/>
-      <c r="AE19" s="202"/>
-      <c r="AF19" s="197"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="198"/>
-      <c r="AI19" s="199"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="234"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="236"/>
+      <c r="W19" s="236"/>
+      <c r="X19" s="236"/>
+      <c r="Y19" s="236"/>
+      <c r="Z19" s="236"/>
+      <c r="AA19" s="236"/>
+      <c r="AB19" s="236"/>
+      <c r="AC19" s="236"/>
+      <c r="AD19" s="236"/>
+      <c r="AE19" s="237"/>
+      <c r="AF19" s="232"/>
+      <c r="AG19" s="233"/>
+      <c r="AH19" s="233"/>
+      <c r="AI19" s="234"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="198"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="200"/>
-      <c r="R20" s="201"/>
-      <c r="S20" s="201"/>
-      <c r="T20" s="201"/>
-      <c r="U20" s="201"/>
-      <c r="V20" s="201"/>
-      <c r="W20" s="201"/>
-      <c r="X20" s="201"/>
-      <c r="Y20" s="201"/>
-      <c r="Z20" s="201"/>
-      <c r="AA20" s="201"/>
-      <c r="AB20" s="201"/>
-      <c r="AC20" s="201"/>
-      <c r="AD20" s="201"/>
-      <c r="AE20" s="202"/>
-      <c r="AF20" s="197"/>
-      <c r="AG20" s="198"/>
-      <c r="AH20" s="198"/>
-      <c r="AI20" s="199"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="233"/>
+      <c r="O20" s="233"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="236"/>
+      <c r="S20" s="236"/>
+      <c r="T20" s="236"/>
+      <c r="U20" s="236"/>
+      <c r="V20" s="236"/>
+      <c r="W20" s="236"/>
+      <c r="X20" s="236"/>
+      <c r="Y20" s="236"/>
+      <c r="Z20" s="236"/>
+      <c r="AA20" s="236"/>
+      <c r="AB20" s="236"/>
+      <c r="AC20" s="236"/>
+      <c r="AD20" s="236"/>
+      <c r="AE20" s="237"/>
+      <c r="AF20" s="232"/>
+      <c r="AG20" s="233"/>
+      <c r="AH20" s="233"/>
+      <c r="AI20" s="234"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="201"/>
-      <c r="S21" s="201"/>
-      <c r="T21" s="201"/>
-      <c r="U21" s="201"/>
-      <c r="V21" s="201"/>
-      <c r="W21" s="201"/>
-      <c r="X21" s="201"/>
-      <c r="Y21" s="201"/>
-      <c r="Z21" s="201"/>
-      <c r="AA21" s="201"/>
-      <c r="AB21" s="201"/>
-      <c r="AC21" s="201"/>
-      <c r="AD21" s="201"/>
-      <c r="AE21" s="202"/>
-      <c r="AF21" s="197"/>
-      <c r="AG21" s="198"/>
-      <c r="AH21" s="198"/>
-      <c r="AI21" s="199"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="233"/>
+      <c r="P21" s="234"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="236"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="236"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="236"/>
+      <c r="W21" s="236"/>
+      <c r="X21" s="236"/>
+      <c r="Y21" s="236"/>
+      <c r="Z21" s="236"/>
+      <c r="AA21" s="236"/>
+      <c r="AB21" s="236"/>
+      <c r="AC21" s="236"/>
+      <c r="AD21" s="236"/>
+      <c r="AE21" s="237"/>
+      <c r="AF21" s="232"/>
+      <c r="AG21" s="233"/>
+      <c r="AH21" s="233"/>
+      <c r="AI21" s="234"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="201"/>
-      <c r="S22" s="201"/>
-      <c r="T22" s="201"/>
-      <c r="U22" s="201"/>
-      <c r="V22" s="201"/>
-      <c r="W22" s="201"/>
-      <c r="X22" s="201"/>
-      <c r="Y22" s="201"/>
-      <c r="Z22" s="201"/>
-      <c r="AA22" s="201"/>
-      <c r="AB22" s="201"/>
-      <c r="AC22" s="201"/>
-      <c r="AD22" s="201"/>
-      <c r="AE22" s="202"/>
-      <c r="AF22" s="197"/>
-      <c r="AG22" s="198"/>
-      <c r="AH22" s="198"/>
-      <c r="AI22" s="199"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="227"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="233"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="233"/>
+      <c r="N22" s="233"/>
+      <c r="O22" s="233"/>
+      <c r="P22" s="234"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="236"/>
+      <c r="V22" s="236"/>
+      <c r="W22" s="236"/>
+      <c r="X22" s="236"/>
+      <c r="Y22" s="236"/>
+      <c r="Z22" s="236"/>
+      <c r="AA22" s="236"/>
+      <c r="AB22" s="236"/>
+      <c r="AC22" s="236"/>
+      <c r="AD22" s="236"/>
+      <c r="AE22" s="237"/>
+      <c r="AF22" s="232"/>
+      <c r="AG22" s="233"/>
+      <c r="AH22" s="233"/>
+      <c r="AI22" s="234"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="198"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="200"/>
-      <c r="R23" s="201"/>
-      <c r="S23" s="201"/>
-      <c r="T23" s="201"/>
-      <c r="U23" s="201"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="201"/>
-      <c r="X23" s="201"/>
-      <c r="Y23" s="201"/>
-      <c r="Z23" s="201"/>
-      <c r="AA23" s="201"/>
-      <c r="AB23" s="201"/>
-      <c r="AC23" s="201"/>
-      <c r="AD23" s="201"/>
-      <c r="AE23" s="202"/>
-      <c r="AF23" s="197"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="198"/>
-      <c r="AI23" s="199"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="227"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="233"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="233"/>
+      <c r="N23" s="233"/>
+      <c r="O23" s="233"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="236"/>
+      <c r="S23" s="236"/>
+      <c r="T23" s="236"/>
+      <c r="U23" s="236"/>
+      <c r="V23" s="236"/>
+      <c r="W23" s="236"/>
+      <c r="X23" s="236"/>
+      <c r="Y23" s="236"/>
+      <c r="Z23" s="236"/>
+      <c r="AA23" s="236"/>
+      <c r="AB23" s="236"/>
+      <c r="AC23" s="236"/>
+      <c r="AD23" s="236"/>
+      <c r="AE23" s="237"/>
+      <c r="AF23" s="232"/>
+      <c r="AG23" s="233"/>
+      <c r="AH23" s="233"/>
+      <c r="AI23" s="234"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="200"/>
-      <c r="R24" s="201"/>
-      <c r="S24" s="201"/>
-      <c r="T24" s="201"/>
-      <c r="U24" s="201"/>
-      <c r="V24" s="201"/>
-      <c r="W24" s="201"/>
-      <c r="X24" s="201"/>
-      <c r="Y24" s="201"/>
-      <c r="Z24" s="201"/>
-      <c r="AA24" s="201"/>
-      <c r="AB24" s="201"/>
-      <c r="AC24" s="201"/>
-      <c r="AD24" s="201"/>
-      <c r="AE24" s="202"/>
-      <c r="AF24" s="197"/>
-      <c r="AG24" s="198"/>
-      <c r="AH24" s="198"/>
-      <c r="AI24" s="199"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="231"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="233"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="233"/>
+      <c r="N24" s="233"/>
+      <c r="O24" s="233"/>
+      <c r="P24" s="234"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="236"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="236"/>
+      <c r="U24" s="236"/>
+      <c r="V24" s="236"/>
+      <c r="W24" s="236"/>
+      <c r="X24" s="236"/>
+      <c r="Y24" s="236"/>
+      <c r="Z24" s="236"/>
+      <c r="AA24" s="236"/>
+      <c r="AB24" s="236"/>
+      <c r="AC24" s="236"/>
+      <c r="AD24" s="236"/>
+      <c r="AE24" s="237"/>
+      <c r="AF24" s="232"/>
+      <c r="AG24" s="233"/>
+      <c r="AH24" s="233"/>
+      <c r="AI24" s="234"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="201"/>
-      <c r="S25" s="201"/>
-      <c r="T25" s="201"/>
-      <c r="U25" s="201"/>
-      <c r="V25" s="201"/>
-      <c r="W25" s="201"/>
-      <c r="X25" s="201"/>
-      <c r="Y25" s="201"/>
-      <c r="Z25" s="201"/>
-      <c r="AA25" s="201"/>
-      <c r="AB25" s="201"/>
-      <c r="AC25" s="201"/>
-      <c r="AD25" s="201"/>
-      <c r="AE25" s="202"/>
-      <c r="AF25" s="197"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="198"/>
-      <c r="AI25" s="199"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="227"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="233"/>
+      <c r="L25" s="233"/>
+      <c r="M25" s="233"/>
+      <c r="N25" s="233"/>
+      <c r="O25" s="233"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="236"/>
+      <c r="X25" s="236"/>
+      <c r="Y25" s="236"/>
+      <c r="Z25" s="236"/>
+      <c r="AA25" s="236"/>
+      <c r="AB25" s="236"/>
+      <c r="AC25" s="236"/>
+      <c r="AD25" s="236"/>
+      <c r="AE25" s="237"/>
+      <c r="AF25" s="232"/>
+      <c r="AG25" s="233"/>
+      <c r="AH25" s="233"/>
+      <c r="AI25" s="234"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="198"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="200"/>
-      <c r="R26" s="201"/>
-      <c r="S26" s="201"/>
-      <c r="T26" s="201"/>
-      <c r="U26" s="201"/>
-      <c r="V26" s="201"/>
-      <c r="W26" s="201"/>
-      <c r="X26" s="201"/>
-      <c r="Y26" s="201"/>
-      <c r="Z26" s="201"/>
-      <c r="AA26" s="201"/>
-      <c r="AB26" s="201"/>
-      <c r="AC26" s="201"/>
-      <c r="AD26" s="201"/>
-      <c r="AE26" s="202"/>
-      <c r="AF26" s="197"/>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="198"/>
-      <c r="AI26" s="199"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="233"/>
+      <c r="L26" s="233"/>
+      <c r="M26" s="233"/>
+      <c r="N26" s="233"/>
+      <c r="O26" s="233"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="236"/>
+      <c r="S26" s="236"/>
+      <c r="T26" s="236"/>
+      <c r="U26" s="236"/>
+      <c r="V26" s="236"/>
+      <c r="W26" s="236"/>
+      <c r="X26" s="236"/>
+      <c r="Y26" s="236"/>
+      <c r="Z26" s="236"/>
+      <c r="AA26" s="236"/>
+      <c r="AB26" s="236"/>
+      <c r="AC26" s="236"/>
+      <c r="AD26" s="236"/>
+      <c r="AE26" s="237"/>
+      <c r="AF26" s="232"/>
+      <c r="AG26" s="233"/>
+      <c r="AH26" s="233"/>
+      <c r="AI26" s="234"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="198"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="201"/>
-      <c r="S27" s="201"/>
-      <c r="T27" s="201"/>
-      <c r="U27" s="201"/>
-      <c r="V27" s="201"/>
-      <c r="W27" s="201"/>
-      <c r="X27" s="201"/>
-      <c r="Y27" s="201"/>
-      <c r="Z27" s="201"/>
-      <c r="AA27" s="201"/>
-      <c r="AB27" s="201"/>
-      <c r="AC27" s="201"/>
-      <c r="AD27" s="201"/>
-      <c r="AE27" s="202"/>
-      <c r="AF27" s="197"/>
-      <c r="AG27" s="198"/>
-      <c r="AH27" s="198"/>
-      <c r="AI27" s="199"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="233"/>
+      <c r="L27" s="233"/>
+      <c r="M27" s="233"/>
+      <c r="N27" s="233"/>
+      <c r="O27" s="233"/>
+      <c r="P27" s="234"/>
+      <c r="Q27" s="235"/>
+      <c r="R27" s="236"/>
+      <c r="S27" s="236"/>
+      <c r="T27" s="236"/>
+      <c r="U27" s="236"/>
+      <c r="V27" s="236"/>
+      <c r="W27" s="236"/>
+      <c r="X27" s="236"/>
+      <c r="Y27" s="236"/>
+      <c r="Z27" s="236"/>
+      <c r="AA27" s="236"/>
+      <c r="AB27" s="236"/>
+      <c r="AC27" s="236"/>
+      <c r="AD27" s="236"/>
+      <c r="AE27" s="237"/>
+      <c r="AF27" s="232"/>
+      <c r="AG27" s="233"/>
+      <c r="AH27" s="233"/>
+      <c r="AI27" s="234"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="198"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="200"/>
-      <c r="R28" s="201"/>
-      <c r="S28" s="201"/>
-      <c r="T28" s="201"/>
-      <c r="U28" s="201"/>
-      <c r="V28" s="201"/>
-      <c r="W28" s="201"/>
-      <c r="X28" s="201"/>
-      <c r="Y28" s="201"/>
-      <c r="Z28" s="201"/>
-      <c r="AA28" s="201"/>
-      <c r="AB28" s="201"/>
-      <c r="AC28" s="201"/>
-      <c r="AD28" s="201"/>
-      <c r="AE28" s="202"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="198"/>
-      <c r="AH28" s="198"/>
-      <c r="AI28" s="199"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="233"/>
+      <c r="L28" s="233"/>
+      <c r="M28" s="233"/>
+      <c r="N28" s="233"/>
+      <c r="O28" s="233"/>
+      <c r="P28" s="234"/>
+      <c r="Q28" s="235"/>
+      <c r="R28" s="236"/>
+      <c r="S28" s="236"/>
+      <c r="T28" s="236"/>
+      <c r="U28" s="236"/>
+      <c r="V28" s="236"/>
+      <c r="W28" s="236"/>
+      <c r="X28" s="236"/>
+      <c r="Y28" s="236"/>
+      <c r="Z28" s="236"/>
+      <c r="AA28" s="236"/>
+      <c r="AB28" s="236"/>
+      <c r="AC28" s="236"/>
+      <c r="AD28" s="236"/>
+      <c r="AE28" s="237"/>
+      <c r="AF28" s="232"/>
+      <c r="AG28" s="233"/>
+      <c r="AH28" s="233"/>
+      <c r="AI28" s="234"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="198"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="200"/>
-      <c r="R29" s="201"/>
-      <c r="S29" s="201"/>
-      <c r="T29" s="201"/>
-      <c r="U29" s="201"/>
-      <c r="V29" s="201"/>
-      <c r="W29" s="201"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="201"/>
-      <c r="Z29" s="201"/>
-      <c r="AA29" s="201"/>
-      <c r="AB29" s="201"/>
-      <c r="AC29" s="201"/>
-      <c r="AD29" s="201"/>
-      <c r="AE29" s="202"/>
-      <c r="AF29" s="197"/>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="198"/>
-      <c r="AI29" s="199"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="227"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="233"/>
+      <c r="L29" s="233"/>
+      <c r="M29" s="233"/>
+      <c r="N29" s="233"/>
+      <c r="O29" s="233"/>
+      <c r="P29" s="234"/>
+      <c r="Q29" s="235"/>
+      <c r="R29" s="236"/>
+      <c r="S29" s="236"/>
+      <c r="T29" s="236"/>
+      <c r="U29" s="236"/>
+      <c r="V29" s="236"/>
+      <c r="W29" s="236"/>
+      <c r="X29" s="236"/>
+      <c r="Y29" s="236"/>
+      <c r="Z29" s="236"/>
+      <c r="AA29" s="236"/>
+      <c r="AB29" s="236"/>
+      <c r="AC29" s="236"/>
+      <c r="AD29" s="236"/>
+      <c r="AE29" s="237"/>
+      <c r="AF29" s="232"/>
+      <c r="AG29" s="233"/>
+      <c r="AH29" s="233"/>
+      <c r="AI29" s="234"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="201"/>
-      <c r="S30" s="201"/>
-      <c r="T30" s="201"/>
-      <c r="U30" s="201"/>
-      <c r="V30" s="201"/>
-      <c r="W30" s="201"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="201"/>
-      <c r="Z30" s="201"/>
-      <c r="AA30" s="201"/>
-      <c r="AB30" s="201"/>
-      <c r="AC30" s="201"/>
-      <c r="AD30" s="201"/>
-      <c r="AE30" s="202"/>
-      <c r="AF30" s="197"/>
-      <c r="AG30" s="198"/>
-      <c r="AH30" s="198"/>
-      <c r="AI30" s="199"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="227"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="233"/>
+      <c r="L30" s="233"/>
+      <c r="M30" s="233"/>
+      <c r="N30" s="233"/>
+      <c r="O30" s="233"/>
+      <c r="P30" s="234"/>
+      <c r="Q30" s="235"/>
+      <c r="R30" s="236"/>
+      <c r="S30" s="236"/>
+      <c r="T30" s="236"/>
+      <c r="U30" s="236"/>
+      <c r="V30" s="236"/>
+      <c r="W30" s="236"/>
+      <c r="X30" s="236"/>
+      <c r="Y30" s="236"/>
+      <c r="Z30" s="236"/>
+      <c r="AA30" s="236"/>
+      <c r="AB30" s="236"/>
+      <c r="AC30" s="236"/>
+      <c r="AD30" s="236"/>
+      <c r="AE30" s="237"/>
+      <c r="AF30" s="232"/>
+      <c r="AG30" s="233"/>
+      <c r="AH30" s="233"/>
+      <c r="AI30" s="234"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="191"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="201"/>
-      <c r="S31" s="201"/>
-      <c r="T31" s="201"/>
-      <c r="U31" s="201"/>
-      <c r="V31" s="201"/>
-      <c r="W31" s="201"/>
-      <c r="X31" s="201"/>
-      <c r="Y31" s="201"/>
-      <c r="Z31" s="201"/>
-      <c r="AA31" s="201"/>
-      <c r="AB31" s="201"/>
-      <c r="AC31" s="201"/>
-      <c r="AD31" s="201"/>
-      <c r="AE31" s="202"/>
-      <c r="AF31" s="197"/>
-      <c r="AG31" s="198"/>
-      <c r="AH31" s="198"/>
-      <c r="AI31" s="199"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="233"/>
+      <c r="L31" s="233"/>
+      <c r="M31" s="233"/>
+      <c r="N31" s="233"/>
+      <c r="O31" s="233"/>
+      <c r="P31" s="234"/>
+      <c r="Q31" s="235"/>
+      <c r="R31" s="236"/>
+      <c r="S31" s="236"/>
+      <c r="T31" s="236"/>
+      <c r="U31" s="236"/>
+      <c r="V31" s="236"/>
+      <c r="W31" s="236"/>
+      <c r="X31" s="236"/>
+      <c r="Y31" s="236"/>
+      <c r="Z31" s="236"/>
+      <c r="AA31" s="236"/>
+      <c r="AB31" s="236"/>
+      <c r="AC31" s="236"/>
+      <c r="AD31" s="236"/>
+      <c r="AE31" s="237"/>
+      <c r="AF31" s="232"/>
+      <c r="AG31" s="233"/>
+      <c r="AH31" s="233"/>
+      <c r="AI31" s="234"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="212"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="198"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="200"/>
-      <c r="R32" s="201"/>
-      <c r="S32" s="201"/>
-      <c r="T32" s="201"/>
-      <c r="U32" s="201"/>
-      <c r="V32" s="201"/>
-      <c r="W32" s="201"/>
-      <c r="X32" s="201"/>
-      <c r="Y32" s="201"/>
-      <c r="Z32" s="201"/>
-      <c r="AA32" s="201"/>
-      <c r="AB32" s="201"/>
-      <c r="AC32" s="201"/>
-      <c r="AD32" s="201"/>
-      <c r="AE32" s="202"/>
-      <c r="AF32" s="197"/>
-      <c r="AG32" s="198"/>
-      <c r="AH32" s="198"/>
-      <c r="AI32" s="199"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="233"/>
+      <c r="M32" s="233"/>
+      <c r="N32" s="233"/>
+      <c r="O32" s="233"/>
+      <c r="P32" s="234"/>
+      <c r="Q32" s="235"/>
+      <c r="R32" s="236"/>
+      <c r="S32" s="236"/>
+      <c r="T32" s="236"/>
+      <c r="U32" s="236"/>
+      <c r="V32" s="236"/>
+      <c r="W32" s="236"/>
+      <c r="X32" s="236"/>
+      <c r="Y32" s="236"/>
+      <c r="Z32" s="236"/>
+      <c r="AA32" s="236"/>
+      <c r="AB32" s="236"/>
+      <c r="AC32" s="236"/>
+      <c r="AD32" s="236"/>
+      <c r="AE32" s="237"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="233"/>
+      <c r="AH32" s="233"/>
+      <c r="AI32" s="234"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="200"/>
-      <c r="R33" s="201"/>
-      <c r="S33" s="201"/>
-      <c r="T33" s="201"/>
-      <c r="U33" s="201"/>
-      <c r="V33" s="201"/>
-      <c r="W33" s="201"/>
-      <c r="X33" s="201"/>
-      <c r="Y33" s="201"/>
-      <c r="Z33" s="201"/>
-      <c r="AA33" s="201"/>
-      <c r="AB33" s="201"/>
-      <c r="AC33" s="201"/>
-      <c r="AD33" s="201"/>
-      <c r="AE33" s="202"/>
-      <c r="AF33" s="197"/>
-      <c r="AG33" s="198"/>
-      <c r="AH33" s="198"/>
-      <c r="AI33" s="199"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="227"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="227"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="233"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="233"/>
+      <c r="N33" s="233"/>
+      <c r="O33" s="233"/>
+      <c r="P33" s="234"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="236"/>
+      <c r="S33" s="236"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="236"/>
+      <c r="X33" s="236"/>
+      <c r="Y33" s="236"/>
+      <c r="Z33" s="236"/>
+      <c r="AA33" s="236"/>
+      <c r="AB33" s="236"/>
+      <c r="AC33" s="236"/>
+      <c r="AD33" s="236"/>
+      <c r="AE33" s="237"/>
+      <c r="AF33" s="232"/>
+      <c r="AG33" s="233"/>
+      <c r="AH33" s="233"/>
+      <c r="AI33" s="234"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8562,6 +8410,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8719,164 +8722,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="161" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164" t="str">
+      <c r="A1" s="254" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="170" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="179" t="str">
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="263" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(リクエスト・取引単体（Webサービス）)
 サンプル取引/RMXXXXXXXX</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="161" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="188" t="str">
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="254" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="189"/>
-      <c r="AE1" s="189"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="213">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="284">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44011</v>
       </c>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="215"/>
+      <c r="AH1" s="285"/>
+      <c r="AI1" s="286"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="161" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164" t="str">
+      <c r="A2" s="254" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="161" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="188" t="str">
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="254" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="256"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="213" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="215"/>
+      <c r="AH2" s="285"/>
+      <c r="AI2" s="286"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="164" t="str">
+      <c r="A3" s="254" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="188" t="str">
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="270"/>
+      <c r="Q3" s="270"/>
+      <c r="R3" s="271"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="280"/>
+      <c r="AA3" s="254"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="189"/>
-      <c r="AE3" s="189"/>
-      <c r="AF3" s="190"/>
-      <c r="AG3" s="213" t="str">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="214"/>
-      <c r="AI3" s="215"/>
+      <c r="AH3" s="285"/>
+      <c r="AI3" s="286"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -8936,7 +8939,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
@@ -8997,7 +9000,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="A7" s="28"/>
       <c r="B7" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -9037,7 +9040,7 @@
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -9076,7 +9079,7 @@
       <c r="A9" s="28"/>
       <c r="B9" s="30"/>
       <c r="C9" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9115,7 +9118,7 @@
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -10345,6 +10348,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -10354,14 +10365,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -10396,7 +10399,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -10406,17 +10409,17 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="72" t="s">
         <v>23</v>
@@ -10427,7 +10430,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="72" t="s">
         <v>24</v>
@@ -10456,7 +10459,7 @@
     <row r="9" spans="1:15" ht="243" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:15" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>11</v>
@@ -10499,66 +10502,66 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="216" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="217"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="217"/>
-      <c r="M11" s="217"/>
-      <c r="N11" s="218"/>
+      <c r="A11" s="287" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="288"/>
+      <c r="N11" s="289"/>
     </row>
     <row r="12" spans="1:15" s="79" customFormat="1" ht="33.75">
-      <c r="A12" s="219" t="s">
+      <c r="A12" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="221" t="s">
+      <c r="D12" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="156" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="221" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="225"/>
-      <c r="K12" s="225"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="225"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="160"/>
     </row>
     <row r="13" spans="1:15" s="79" customFormat="1">
-      <c r="A13" s="219" t="s">
+      <c r="A13" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="222"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="228"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="225"/>
-      <c r="L13" s="222"/>
-      <c r="M13" s="226"/>
-      <c r="N13" s="225"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="160"/>
     </row>
     <row r="14" spans="1:15" s="79" customFormat="1" ht="33.75">
       <c r="A14" s="87" t="s">
@@ -10569,10 +10572,10 @@
         <v>105</v>
       </c>
       <c r="D14" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="89" t="s">
         <v>168</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>169</v>
       </c>
       <c r="F14" s="90"/>
       <c r="G14" s="90"/>
@@ -10585,72 +10588,72 @@
       <c r="N14" s="92"/>
     </row>
     <row r="15" spans="1:15" s="79" customFormat="1" ht="33.75">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="221" t="s">
+      <c r="B15" s="155"/>
+      <c r="C15" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="221" t="s">
+      <c r="D15" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="156" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="221" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="226"/>
-      <c r="N15" s="225"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="160"/>
     </row>
     <row r="16" spans="1:15" s="79" customFormat="1">
-      <c r="A16" s="219" t="s">
+      <c r="A16" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="220"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="225"/>
-      <c r="K16" s="225"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="226"/>
-      <c r="N16" s="225"/>
-    </row>
-    <row r="17" spans="1:14" s="230" customFormat="1" ht="33.75">
+      <c r="B16" s="155"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="160"/>
+    </row>
+    <row r="17" spans="1:14" s="165" customFormat="1" ht="33.75">
       <c r="A17" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="81"/>
-      <c r="C17" s="229" t="s">
+      <c r="C17" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="229" t="s">
+      <c r="D17" s="164" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="164" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="229" t="s">
-        <v>169</v>
-      </c>
       <c r="F17" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="82" t="s">
-        <v>187</v>
-      </c>
       <c r="H17" s="82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J17" s="85"/>
       <c r="K17" s="85"/>
@@ -10667,10 +10670,10 @@
         <v>55</v>
       </c>
       <c r="D18" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="89" t="s">
         <v>168</v>
-      </c>
-      <c r="E18" s="89" t="s">
-        <v>169</v>
       </c>
       <c r="F18" s="90"/>
       <c r="G18" s="90"/>
@@ -10683,48 +10686,48 @@
       <c r="N18" s="92"/>
     </row>
     <row r="19" spans="1:14" s="79" customFormat="1" ht="33.75">
-      <c r="A19" s="219" t="s">
+      <c r="A19" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="221" t="s">
+      <c r="C19" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="221" t="s">
+      <c r="D19" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="156" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="221" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="222"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="225"/>
-      <c r="K19" s="225"/>
-      <c r="L19" s="222"/>
-      <c r="M19" s="226"/>
-      <c r="N19" s="225"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="160"/>
     </row>
     <row r="20" spans="1:14" s="79" customFormat="1">
-      <c r="A20" s="219" t="s">
+      <c r="A20" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="222"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="225"/>
-      <c r="L20" s="222"/>
-      <c r="M20" s="226"/>
-      <c r="N20" s="225"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="160"/>
     </row>
     <row r="21" spans="1:14" s="79" customFormat="1" ht="33.75">
       <c r="A21" s="87" t="s">
@@ -10735,10 +10738,10 @@
         <v>108</v>
       </c>
       <c r="D21" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="89" t="s">
         <v>168</v>
-      </c>
-      <c r="E21" s="89" t="s">
-        <v>169</v>
       </c>
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
@@ -10759,10 +10762,10 @@
         <v>109</v>
       </c>
       <c r="D22" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="89" t="s">
         <v>168</v>
-      </c>
-      <c r="E22" s="89" t="s">
-        <v>169</v>
       </c>
       <c r="F22" s="90"/>
       <c r="G22" s="90"/>
@@ -10783,10 +10786,10 @@
         <v>57</v>
       </c>
       <c r="D23" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="89" t="s">
         <v>168</v>
-      </c>
-      <c r="E23" s="89" t="s">
-        <v>169</v>
       </c>
       <c r="F23" s="90"/>
       <c r="G23" s="90"/>
@@ -10807,10 +10810,10 @@
         <v>110</v>
       </c>
       <c r="D24" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="89" t="s">
         <v>168</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>169</v>
       </c>
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
@@ -10833,10 +10836,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
@@ -10857,10 +10860,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F26" s="90"/>
       <c r="G26" s="90"/>
@@ -10881,10 +10884,10 @@
         <v>28</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F27" s="90"/>
       <c r="G27" s="90"/>
@@ -10905,10 +10908,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
@@ -10929,10 +10932,10 @@
         <v>29</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="90"/>
       <c r="G29" s="90"/>
@@ -10953,10 +10956,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -10979,10 +10982,10 @@
         <v>60</v>
       </c>
       <c r="D31" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="105" t="s">
         <v>174</v>
-      </c>
-      <c r="E31" s="105" t="s">
-        <v>175</v>
       </c>
       <c r="F31" s="90"/>
       <c r="G31" s="90"/>
@@ -11003,10 +11006,10 @@
         <v>61</v>
       </c>
       <c r="D32" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="105" t="s">
         <v>174</v>
-      </c>
-      <c r="E32" s="105" t="s">
-        <v>175</v>
       </c>
       <c r="F32" s="90"/>
       <c r="G32" s="90"/>
@@ -11027,10 +11030,10 @@
         <v>62</v>
       </c>
       <c r="D33" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="105" t="s">
         <v>174</v>
-      </c>
-      <c r="E33" s="105" t="s">
-        <v>175</v>
       </c>
       <c r="F33" s="90"/>
       <c r="G33" s="90"/>
@@ -11051,10 +11054,10 @@
         <v>63</v>
       </c>
       <c r="D34" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="105" t="s">
         <v>174</v>
-      </c>
-      <c r="E34" s="105" t="s">
-        <v>175</v>
       </c>
       <c r="F34" s="90"/>
       <c r="G34" s="90"/>
@@ -11137,7 +11140,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11147,17 +11150,17 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" s="72" t="s">
         <v>23</v>
@@ -11168,7 +11171,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="72" t="s">
         <v>24</v>
@@ -11179,7 +11182,7 @@
     </row>
     <row r="8" spans="1:15" ht="12" thickBot="1">
       <c r="A8" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -11199,7 +11202,7 @@
     <row r="9" spans="1:15" ht="120.75" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:15" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>10</v>
@@ -11226,7 +11229,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K10" s="113" t="s">
         <v>6</v>
@@ -11267,13 +11270,13 @@
         <v>82</v>
       </c>
       <c r="H11" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I11" s="120" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="K11" s="121"/>
       <c r="L11" s="121"/>
@@ -11322,8 +11325,8 @@
       <c r="G13" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="232"/>
-      <c r="I13" s="232"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
       <c r="J13" s="144"/>
       <c r="K13" s="132"/>
       <c r="L13" s="132"/>
@@ -11332,56 +11335,56 @@
       <c r="O13" s="132"/>
     </row>
     <row r="14" spans="1:15" s="79" customFormat="1" ht="45">
-      <c r="A14" s="235" t="s">
+      <c r="A14" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="237" t="s">
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="238" t="s">
+      <c r="E14" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="239" t="s">
+      <c r="F14" s="174" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="178"/>
+    </row>
+    <row r="15" spans="1:15" s="79" customFormat="1" ht="45">
+      <c r="A15" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="173" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="240" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="222"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="244"/>
-      <c r="N14" s="245"/>
-      <c r="O14" s="243"/>
-    </row>
-    <row r="15" spans="1:15" s="79" customFormat="1" ht="45">
-      <c r="A15" s="235" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="236"/>
-      <c r="C15" s="236"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="238" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="239" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="240" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
+      <c r="G15" s="175" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
       <c r="J15" s="113"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="244"/>
-      <c r="N15" s="245"/>
-      <c r="O15" s="243"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="178"/>
     </row>
     <row r="16" spans="1:15" s="79" customFormat="1" ht="45">
       <c r="A16" s="125" t="s">
@@ -11394,14 +11397,14 @@
         <v>121</v>
       </c>
       <c r="F16" s="138" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="138" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="234"/>
+        <v>171</v>
+      </c>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="169"/>
       <c r="K16" s="132"/>
       <c r="L16" s="132"/>
       <c r="M16" s="131"/>
@@ -11419,10 +11422,10 @@
         <v>122</v>
       </c>
       <c r="F17" s="138" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="143"/>
       <c r="I17" s="143"/>
@@ -11434,54 +11437,54 @@
       <c r="O17" s="132"/>
     </row>
     <row r="18" spans="1:16" ht="45">
-      <c r="A18" s="235" t="s">
+      <c r="A18" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="247" t="s">
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="248" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="249" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="244"/>
-      <c r="M18" s="244"/>
-      <c r="N18" s="244"/>
-      <c r="O18" s="244"/>
+      <c r="F18" s="183" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="184" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
     </row>
     <row r="19" spans="1:16" ht="45">
-      <c r="A19" s="235" t="s">
+      <c r="A19" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="236"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="238" t="s">
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="239" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="240" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
+      <c r="F19" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="175" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
       <c r="J19" s="113"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="244"/>
-      <c r="N19" s="244"/>
-      <c r="O19" s="244"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
     </row>
     <row r="20" spans="1:16" ht="22.5">
       <c r="A20" s="125" t="s">
@@ -11499,9 +11502,9 @@
       <c r="G20" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="234"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
       <c r="K20" s="131"/>
       <c r="L20" s="131"/>
       <c r="M20" s="131"/>
@@ -11571,10 +11574,10 @@
         <v>112</v>
       </c>
       <c r="F23" s="138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G23" s="138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="139"/>
       <c r="I23" s="139"/>
@@ -11596,10 +11599,10 @@
         <v>113</v>
       </c>
       <c r="F24" s="138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" s="139"/>
       <c r="I24" s="139"/>
@@ -11621,10 +11624,10 @@
         <v>114</v>
       </c>
       <c r="F25" s="138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G25" s="138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
@@ -11646,10 +11649,10 @@
         <v>115</v>
       </c>
       <c r="F26" s="138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G26" s="138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H26" s="139"/>
       <c r="I26" s="139"/>
@@ -11665,8 +11668,8 @@
         <v>98</v>
       </c>
       <c r="B27" s="145"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="276"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="146" t="s">
         <v>116</v>
       </c>
@@ -11676,126 +11679,126 @@
       <c r="G27" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="277" t="s">
+      <c r="H27" s="212" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="224" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="290" t="s">
+      <c r="J27" s="213" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="278" t="s">
-        <v>201</v>
-      </c>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="278"/>
-      <c r="O27" s="278"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
     </row>
     <row r="28" spans="1:16" ht="47.1" customHeight="1">
-      <c r="A28" s="235" t="s">
+      <c r="A28" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="279" t="s">
+      <c r="B28" s="171"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="214" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="280"/>
-      <c r="F28" s="281" t="s">
+      <c r="G28" s="217" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="282" t="s">
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="192"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="193"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="170" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="257"/>
-      <c r="I28" s="257"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="257"/>
-      <c r="N28" s="257"/>
-      <c r="O28" s="258"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="235" t="s">
+      <c r="B29" s="171"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="190" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="191"/>
+      <c r="F29" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="192"/>
+      <c r="N29" s="192"/>
+      <c r="O29" s="193"/>
+    </row>
+    <row r="30" spans="1:16" ht="47.1" customHeight="1">
+      <c r="A30" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="124"/>
+      <c r="C30" s="201" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="254"/>
-      <c r="D29" s="255" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="256"/>
-      <c r="F29" s="239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="239" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="257"/>
-      <c r="I29" s="257"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="257"/>
-      <c r="N29" s="257"/>
-      <c r="O29" s="258"/>
-    </row>
-    <row r="30" spans="1:16" ht="47.1" customHeight="1">
-      <c r="A30" s="251" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="266" t="s">
+      <c r="D30" s="202"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="208" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="267"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="272" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="273" t="s">
+      <c r="H30" s="196" t="s">
         <v>194</v>
       </c>
-      <c r="H30" s="261" t="s">
+      <c r="I30" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="I30" s="261" t="s">
+      <c r="J30" s="290" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="188"/>
+    </row>
+    <row r="31" spans="1:16" ht="22.5">
+      <c r="A31" s="194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="195"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="196" t="s">
         <v>196</v>
       </c>
-      <c r="J30" s="252" t="s">
+      <c r="I31" s="200" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="291" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="252"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="252"/>
-      <c r="N30" s="252"/>
-      <c r="O30" s="253"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="259" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="260"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="261" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="265" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31" s="283" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="262"/>
-      <c r="L31" s="262"/>
-      <c r="M31" s="263"/>
-      <c r="N31" s="264"/>
-      <c r="O31" s="262"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="199"/>
+      <c r="O31" s="197"/>
       <c r="P31" s="147"/>
     </row>
     <row r="32" spans="1:16">
@@ -11894,7 +11897,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -11904,17 +11907,17 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>23</v>
@@ -11953,7 +11956,7 @@
     <row r="9" spans="1:14" ht="88.5" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:14" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>10</v>
@@ -11977,7 +11980,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J10" s="77" t="s">
         <v>6</v>
@@ -11999,23 +12002,23 @@
       <c r="A11" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="284" t="s">
+      <c r="B11" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="285" t="s">
+      <c r="D11" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="285" t="s">
+      <c r="E11" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="285" t="s">
+      <c r="F11" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="286"/>
-      <c r="H11" s="286"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
       <c r="K11" s="77"/>
@@ -12024,22 +12027,22 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" s="79" customFormat="1">
-      <c r="A12" s="287" t="s">
+      <c r="A12" s="221" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="288"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="284" t="s">
+      <c r="B12" s="222"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="284" t="s">
+      <c r="E12" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="284" t="s">
+      <c r="F12" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="286"/>
-      <c r="H12" s="286"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
       <c r="K12" s="77"/>
@@ -12048,16 +12051,16 @@
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" s="79" customFormat="1">
-      <c r="A13" s="287" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="289"/>
-      <c r="C13" s="289"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
+      <c r="A13" s="221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="223"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(Webサービス)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(Webサービス)_サンプル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FEB5B-35D5-4D3B-A62D-3CE72E7A228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381064A6-66F3-4A3C-83F5-17F2083FF0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="1080" windowWidth="33090" windowHeight="18225" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,9 +14,6 @@
     <sheet name="【リクエストID】_リクエスト単体" sheetId="24" r:id="rId4"/>
     <sheet name="取引単体" sheetId="17" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$R$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$R$311</definedName>
@@ -29,9 +26,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="機能テスト_ウェブアプリ">#REF!</definedName>
-    <definedName name="機能テスト_共通">#REF!</definedName>
-    <definedName name="性能テスト_共通">'[1]性能テスト、ストレステストなど'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8306,6 +8300,108 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8412,108 +8508,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12945,59 +12939,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="一覧"/>
-      <sheetName val="機能テスト【共通】"/>
-      <sheetName val="機能テスト【ウェブアプリケーション】"/>
-      <sheetName val="機能テスト【バッチアプリケーション】"/>
-      <sheetName val="機能テスト【メッセージング】"/>
-      <sheetName val="機能テスト【ウェブサービス】"/>
-      <sheetName val="データ互換性テスト"/>
-      <sheetName val="業務シナリオテスト"/>
-      <sheetName val="業務シナリオテスト_補足"/>
-      <sheetName val="構成テスト"/>
-      <sheetName val="構成テスト_補足"/>
-      <sheetName val="セキュリティテスト"/>
-      <sheetName val="セキュリティテスト_補足"/>
-      <sheetName val="性能テスト、ストレステストなど"/>
-      <sheetName val="性能テスト、ストレステストなど_補足"/>
-      <sheetName val="障害テスト"/>
-      <sheetName val="障害テスト_補足"/>
-      <sheetName val="運用シナリオテスト"/>
-      <sheetName val="運用シナリオテスト_補足"/>
-      <sheetName val="ユーザビリティテスト"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -13939,57 +13880,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="241" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="210" t="s">
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="216" t="s">
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="225" t="s">
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="259" t="s">
         <v>540</v>
       </c>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="207" t="s">
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="261"/>
+      <c r="AA1" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="234" t="str">
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="268" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="201">
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="235">
         <f>IF(D8="","",D8)</f>
         <v>44011</v>
       </c>
-      <c r="AH1" s="202"/>
-      <c r="AI1" s="203"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="237"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13997,53 +13938,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="210" t="s">
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="229"/>
-      <c r="V2" s="229"/>
-      <c r="W2" s="229"/>
-      <c r="X2" s="229"/>
-      <c r="Y2" s="229"/>
-      <c r="Z2" s="230"/>
-      <c r="AA2" s="207" t="s">
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="263"/>
+      <c r="U2" s="263"/>
+      <c r="V2" s="263"/>
+      <c r="W2" s="263"/>
+      <c r="X2" s="263"/>
+      <c r="Y2" s="263"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="213" t="str">
+      <c r="AB2" s="243"/>
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="201">
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="235">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44858</v>
       </c>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="203"/>
+      <c r="AH2" s="236"/>
+      <c r="AI2" s="237"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -14051,45 +13992,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="241" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="210" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="233"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="201"/>
-      <c r="AH3" s="202"/>
-      <c r="AI3" s="203"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="266"/>
+      <c r="Y3" s="266"/>
+      <c r="Z3" s="267"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="243"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="269"/>
+      <c r="AF3" s="270"/>
+      <c r="AG3" s="235"/>
+      <c r="AH3" s="236"/>
+      <c r="AI3" s="237"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -14126,97 +14067,97 @@
       <c r="A7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="204" t="s">
+      <c r="C7" s="239"/>
+      <c r="D7" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="204" t="s">
+      <c r="E7" s="240"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="204" t="s">
+      <c r="H7" s="240"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="206"/>
-      <c r="L7" s="206"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="204" t="s">
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="206"/>
-      <c r="S7" s="206"/>
-      <c r="T7" s="206"/>
-      <c r="U7" s="206"/>
-      <c r="V7" s="206"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="206"/>
-      <c r="Y7" s="206"/>
-      <c r="Z7" s="206"/>
-      <c r="AA7" s="206"/>
-      <c r="AB7" s="206"/>
-      <c r="AC7" s="206"/>
-      <c r="AD7" s="206"/>
-      <c r="AE7" s="205"/>
-      <c r="AF7" s="204" t="s">
+      <c r="R7" s="240"/>
+      <c r="S7" s="240"/>
+      <c r="T7" s="240"/>
+      <c r="U7" s="240"/>
+      <c r="V7" s="240"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
+      <c r="AA7" s="240"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="239"/>
+      <c r="AF7" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="AG7" s="206"/>
-      <c r="AH7" s="206"/>
-      <c r="AI7" s="205"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="239"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="251">
+      <c r="C8" s="227"/>
+      <c r="D8" s="228">
         <v>44011</v>
       </c>
-      <c r="E8" s="252"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="249" t="s">
+      <c r="E8" s="229"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="254"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="255" t="s">
+      <c r="H8" s="231"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="256"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="256"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="255" t="s">
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="256"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="257"/>
+      <c r="R8" s="233"/>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="233"/>
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="233"/>
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="234"/>
       <c r="AF8" s="25" t="s">
         <v>55</v>
       </c>
@@ -14228,1101 +14169,946 @@
       <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="237" t="s">
+      <c r="B9" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="239">
+      <c r="C9" s="215"/>
+      <c r="D9" s="216">
         <v>44858</v>
       </c>
-      <c r="E9" s="240"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="239" t="s">
+      <c r="E9" s="217"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="242"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="243" t="s">
+      <c r="H9" s="219"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="243" t="s">
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="222"/>
+      <c r="Q9" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="246"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="247"/>
-      <c r="AF9" s="248" t="s">
+      <c r="R9" s="223"/>
+      <c r="S9" s="223"/>
+      <c r="T9" s="223"/>
+      <c r="U9" s="223"/>
+      <c r="V9" s="223"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="223"/>
+      <c r="Z9" s="223"/>
+      <c r="AA9" s="223"/>
+      <c r="AB9" s="223"/>
+      <c r="AC9" s="223"/>
+      <c r="AD9" s="223"/>
+      <c r="AE9" s="224"/>
+      <c r="AF9" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="AG9" s="244"/>
-      <c r="AH9" s="244"/>
-      <c r="AI9" s="245"/>
+      <c r="AG9" s="221"/>
+      <c r="AH9" s="221"/>
+      <c r="AI9" s="222"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="258"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="263"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="265"/>
-      <c r="L10" s="265"/>
-      <c r="M10" s="265"/>
-      <c r="N10" s="265"/>
-      <c r="O10" s="265"/>
-      <c r="P10" s="266"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="268"/>
-      <c r="T10" s="268"/>
-      <c r="U10" s="268"/>
-      <c r="V10" s="268"/>
-      <c r="W10" s="268"/>
-      <c r="X10" s="268"/>
-      <c r="Y10" s="268"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="268"/>
-      <c r="AB10" s="268"/>
-      <c r="AC10" s="268"/>
-      <c r="AD10" s="268"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="264"/>
-      <c r="AG10" s="265"/>
-      <c r="AH10" s="265"/>
-      <c r="AI10" s="266"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="208"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="209"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="211"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="211"/>
+      <c r="AA10" s="211"/>
+      <c r="AB10" s="211"/>
+      <c r="AC10" s="211"/>
+      <c r="AD10" s="211"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="207"/>
+      <c r="AG10" s="208"/>
+      <c r="AH10" s="208"/>
+      <c r="AI10" s="209"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="258"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="262"/>
-      <c r="G11" s="258"/>
-      <c r="H11" s="263"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="265"/>
-      <c r="O11" s="265"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="267"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="264"/>
-      <c r="AG11" s="265"/>
-      <c r="AH11" s="265"/>
-      <c r="AI11" s="266"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="208"/>
+      <c r="N11" s="208"/>
+      <c r="O11" s="208"/>
+      <c r="P11" s="209"/>
+      <c r="Q11" s="210"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="211"/>
+      <c r="X11" s="211"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="211"/>
+      <c r="AA11" s="211"/>
+      <c r="AB11" s="211"/>
+      <c r="AC11" s="211"/>
+      <c r="AD11" s="211"/>
+      <c r="AE11" s="212"/>
+      <c r="AF11" s="207"/>
+      <c r="AG11" s="208"/>
+      <c r="AH11" s="208"/>
+      <c r="AI11" s="209"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="261"/>
-      <c r="F12" s="262"/>
-      <c r="G12" s="258"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="264"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="265"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="265"/>
-      <c r="O12" s="265"/>
-      <c r="P12" s="266"/>
-      <c r="Q12" s="267"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="268"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="268"/>
-      <c r="Y12" s="268"/>
-      <c r="Z12" s="268"/>
-      <c r="AA12" s="268"/>
-      <c r="AB12" s="268"/>
-      <c r="AC12" s="268"/>
-      <c r="AD12" s="268"/>
-      <c r="AE12" s="269"/>
-      <c r="AF12" s="264"/>
-      <c r="AG12" s="265"/>
-      <c r="AH12" s="265"/>
-      <c r="AI12" s="266"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="208"/>
+      <c r="N12" s="208"/>
+      <c r="O12" s="208"/>
+      <c r="P12" s="209"/>
+      <c r="Q12" s="210"/>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211"/>
+      <c r="T12" s="211"/>
+      <c r="U12" s="211"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="211"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="211"/>
+      <c r="AA12" s="211"/>
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="211"/>
+      <c r="AD12" s="211"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="207"/>
+      <c r="AG12" s="208"/>
+      <c r="AH12" s="208"/>
+      <c r="AI12" s="209"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="258"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="262"/>
-      <c r="G13" s="258"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="264"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="265"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="267"/>
-      <c r="R13" s="268"/>
-      <c r="S13" s="268"/>
-      <c r="T13" s="268"/>
-      <c r="U13" s="268"/>
-      <c r="V13" s="268"/>
-      <c r="W13" s="268"/>
-      <c r="X13" s="268"/>
-      <c r="Y13" s="268"/>
-      <c r="Z13" s="268"/>
-      <c r="AA13" s="268"/>
-      <c r="AB13" s="268"/>
-      <c r="AC13" s="268"/>
-      <c r="AD13" s="268"/>
-      <c r="AE13" s="269"/>
-      <c r="AF13" s="264"/>
-      <c r="AG13" s="265"/>
-      <c r="AH13" s="265"/>
-      <c r="AI13" s="266"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="208"/>
+      <c r="N13" s="208"/>
+      <c r="O13" s="208"/>
+      <c r="P13" s="209"/>
+      <c r="Q13" s="210"/>
+      <c r="R13" s="211"/>
+      <c r="S13" s="211"/>
+      <c r="T13" s="211"/>
+      <c r="U13" s="211"/>
+      <c r="V13" s="211"/>
+      <c r="W13" s="211"/>
+      <c r="X13" s="211"/>
+      <c r="Y13" s="211"/>
+      <c r="Z13" s="211"/>
+      <c r="AA13" s="211"/>
+      <c r="AB13" s="211"/>
+      <c r="AC13" s="211"/>
+      <c r="AD13" s="211"/>
+      <c r="AE13" s="212"/>
+      <c r="AF13" s="207"/>
+      <c r="AG13" s="208"/>
+      <c r="AH13" s="208"/>
+      <c r="AI13" s="209"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="258"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="258"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="265"/>
-      <c r="M14" s="265"/>
-      <c r="N14" s="265"/>
-      <c r="O14" s="265"/>
-      <c r="P14" s="266"/>
-      <c r="Q14" s="267"/>
-      <c r="R14" s="268"/>
-      <c r="S14" s="268"/>
-      <c r="T14" s="268"/>
-      <c r="U14" s="268"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="268"/>
-      <c r="X14" s="268"/>
-      <c r="Y14" s="268"/>
-      <c r="Z14" s="268"/>
-      <c r="AA14" s="268"/>
-      <c r="AB14" s="268"/>
-      <c r="AC14" s="268"/>
-      <c r="AD14" s="268"/>
-      <c r="AE14" s="269"/>
-      <c r="AF14" s="264"/>
-      <c r="AG14" s="265"/>
-      <c r="AH14" s="265"/>
-      <c r="AI14" s="266"/>
+      <c r="B14" s="201"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="208"/>
+      <c r="N14" s="208"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="209"/>
+      <c r="Q14" s="210"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="211"/>
+      <c r="V14" s="211"/>
+      <c r="W14" s="211"/>
+      <c r="X14" s="211"/>
+      <c r="Y14" s="211"/>
+      <c r="Z14" s="211"/>
+      <c r="AA14" s="211"/>
+      <c r="AB14" s="211"/>
+      <c r="AC14" s="211"/>
+      <c r="AD14" s="211"/>
+      <c r="AE14" s="212"/>
+      <c r="AF14" s="207"/>
+      <c r="AG14" s="208"/>
+      <c r="AH14" s="208"/>
+      <c r="AI14" s="209"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="258"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="261"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="263"/>
-      <c r="I15" s="259"/>
-      <c r="J15" s="264"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="265"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="265"/>
-      <c r="O15" s="265"/>
-      <c r="P15" s="266"/>
-      <c r="Q15" s="267"/>
-      <c r="R15" s="268"/>
-      <c r="S15" s="268"/>
-      <c r="T15" s="268"/>
-      <c r="U15" s="268"/>
-      <c r="V15" s="268"/>
-      <c r="W15" s="268"/>
-      <c r="X15" s="268"/>
-      <c r="Y15" s="268"/>
-      <c r="Z15" s="268"/>
-      <c r="AA15" s="268"/>
-      <c r="AB15" s="268"/>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="269"/>
-      <c r="AF15" s="264"/>
-      <c r="AG15" s="265"/>
-      <c r="AH15" s="265"/>
-      <c r="AI15" s="266"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
+      <c r="N15" s="208"/>
+      <c r="O15" s="208"/>
+      <c r="P15" s="209"/>
+      <c r="Q15" s="210"/>
+      <c r="R15" s="211"/>
+      <c r="S15" s="211"/>
+      <c r="T15" s="211"/>
+      <c r="U15" s="211"/>
+      <c r="V15" s="211"/>
+      <c r="W15" s="211"/>
+      <c r="X15" s="211"/>
+      <c r="Y15" s="211"/>
+      <c r="Z15" s="211"/>
+      <c r="AA15" s="211"/>
+      <c r="AB15" s="211"/>
+      <c r="AC15" s="211"/>
+      <c r="AD15" s="211"/>
+      <c r="AE15" s="212"/>
+      <c r="AF15" s="207"/>
+      <c r="AG15" s="208"/>
+      <c r="AH15" s="208"/>
+      <c r="AI15" s="209"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="258"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="258"/>
-      <c r="H16" s="263"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="264"/>
-      <c r="K16" s="265"/>
-      <c r="L16" s="265"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="265"/>
-      <c r="O16" s="265"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="267"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="268"/>
-      <c r="T16" s="268"/>
-      <c r="U16" s="268"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="268"/>
-      <c r="X16" s="268"/>
-      <c r="Y16" s="268"/>
-      <c r="Z16" s="268"/>
-      <c r="AA16" s="268"/>
-      <c r="AB16" s="268"/>
-      <c r="AC16" s="268"/>
-      <c r="AD16" s="268"/>
-      <c r="AE16" s="269"/>
-      <c r="AF16" s="264"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="266"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="208"/>
+      <c r="N16" s="208"/>
+      <c r="O16" s="208"/>
+      <c r="P16" s="209"/>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="211"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="211"/>
+      <c r="V16" s="211"/>
+      <c r="W16" s="211"/>
+      <c r="X16" s="211"/>
+      <c r="Y16" s="211"/>
+      <c r="Z16" s="211"/>
+      <c r="AA16" s="211"/>
+      <c r="AB16" s="211"/>
+      <c r="AC16" s="211"/>
+      <c r="AD16" s="211"/>
+      <c r="AE16" s="212"/>
+      <c r="AF16" s="207"/>
+      <c r="AG16" s="208"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="209"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="263"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="264"/>
-      <c r="K17" s="265"/>
-      <c r="L17" s="265"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="265"/>
-      <c r="O17" s="265"/>
-      <c r="P17" s="266"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="268"/>
-      <c r="S17" s="268"/>
-      <c r="T17" s="268"/>
-      <c r="U17" s="268"/>
-      <c r="V17" s="268"/>
-      <c r="W17" s="268"/>
-      <c r="X17" s="268"/>
-      <c r="Y17" s="268"/>
-      <c r="Z17" s="268"/>
-      <c r="AA17" s="268"/>
-      <c r="AB17" s="268"/>
-      <c r="AC17" s="268"/>
-      <c r="AD17" s="268"/>
-      <c r="AE17" s="269"/>
-      <c r="AF17" s="264"/>
-      <c r="AG17" s="265"/>
-      <c r="AH17" s="265"/>
-      <c r="AI17" s="266"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
+      <c r="O17" s="208"/>
+      <c r="P17" s="209"/>
+      <c r="Q17" s="210"/>
+      <c r="R17" s="211"/>
+      <c r="S17" s="211"/>
+      <c r="T17" s="211"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="211"/>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="211"/>
+      <c r="Z17" s="211"/>
+      <c r="AA17" s="211"/>
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="211"/>
+      <c r="AD17" s="211"/>
+      <c r="AE17" s="212"/>
+      <c r="AF17" s="207"/>
+      <c r="AG17" s="208"/>
+      <c r="AH17" s="208"/>
+      <c r="AI17" s="209"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="258"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="264"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="265"/>
-      <c r="M18" s="265"/>
-      <c r="N18" s="265"/>
-      <c r="O18" s="265"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="267"/>
-      <c r="R18" s="268"/>
-      <c r="S18" s="268"/>
-      <c r="T18" s="268"/>
-      <c r="U18" s="268"/>
-      <c r="V18" s="268"/>
-      <c r="W18" s="268"/>
-      <c r="X18" s="268"/>
-      <c r="Y18" s="268"/>
-      <c r="Z18" s="268"/>
-      <c r="AA18" s="268"/>
-      <c r="AB18" s="268"/>
-      <c r="AC18" s="268"/>
-      <c r="AD18" s="268"/>
-      <c r="AE18" s="269"/>
-      <c r="AF18" s="264"/>
-      <c r="AG18" s="265"/>
-      <c r="AH18" s="265"/>
-      <c r="AI18" s="266"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="208"/>
+      <c r="P18" s="209"/>
+      <c r="Q18" s="210"/>
+      <c r="R18" s="211"/>
+      <c r="S18" s="211"/>
+      <c r="T18" s="211"/>
+      <c r="U18" s="211"/>
+      <c r="V18" s="211"/>
+      <c r="W18" s="211"/>
+      <c r="X18" s="211"/>
+      <c r="Y18" s="211"/>
+      <c r="Z18" s="211"/>
+      <c r="AA18" s="211"/>
+      <c r="AB18" s="211"/>
+      <c r="AC18" s="211"/>
+      <c r="AD18" s="211"/>
+      <c r="AE18" s="212"/>
+      <c r="AF18" s="207"/>
+      <c r="AG18" s="208"/>
+      <c r="AH18" s="208"/>
+      <c r="AI18" s="209"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="261"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="263"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="264"/>
-      <c r="K19" s="265"/>
-      <c r="L19" s="265"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="265"/>
-      <c r="O19" s="265"/>
-      <c r="P19" s="266"/>
-      <c r="Q19" s="267"/>
-      <c r="R19" s="268"/>
-      <c r="S19" s="268"/>
-      <c r="T19" s="268"/>
-      <c r="U19" s="268"/>
-      <c r="V19" s="268"/>
-      <c r="W19" s="268"/>
-      <c r="X19" s="268"/>
-      <c r="Y19" s="268"/>
-      <c r="Z19" s="268"/>
-      <c r="AA19" s="268"/>
-      <c r="AB19" s="268"/>
-      <c r="AC19" s="268"/>
-      <c r="AD19" s="268"/>
-      <c r="AE19" s="269"/>
-      <c r="AF19" s="264"/>
-      <c r="AG19" s="265"/>
-      <c r="AH19" s="265"/>
-      <c r="AI19" s="266"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="208"/>
+      <c r="N19" s="208"/>
+      <c r="O19" s="208"/>
+      <c r="P19" s="209"/>
+      <c r="Q19" s="210"/>
+      <c r="R19" s="211"/>
+      <c r="S19" s="211"/>
+      <c r="T19" s="211"/>
+      <c r="U19" s="211"/>
+      <c r="V19" s="211"/>
+      <c r="W19" s="211"/>
+      <c r="X19" s="211"/>
+      <c r="Y19" s="211"/>
+      <c r="Z19" s="211"/>
+      <c r="AA19" s="211"/>
+      <c r="AB19" s="211"/>
+      <c r="AC19" s="211"/>
+      <c r="AD19" s="211"/>
+      <c r="AE19" s="212"/>
+      <c r="AF19" s="207"/>
+      <c r="AG19" s="208"/>
+      <c r="AH19" s="208"/>
+      <c r="AI19" s="209"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="258"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="265"/>
-      <c r="L20" s="265"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="265"/>
-      <c r="O20" s="265"/>
-      <c r="P20" s="266"/>
-      <c r="Q20" s="267"/>
-      <c r="R20" s="268"/>
-      <c r="S20" s="268"/>
-      <c r="T20" s="268"/>
-      <c r="U20" s="268"/>
-      <c r="V20" s="268"/>
-      <c r="W20" s="268"/>
-      <c r="X20" s="268"/>
-      <c r="Y20" s="268"/>
-      <c r="Z20" s="268"/>
-      <c r="AA20" s="268"/>
-      <c r="AB20" s="268"/>
-      <c r="AC20" s="268"/>
-      <c r="AD20" s="268"/>
-      <c r="AE20" s="269"/>
-      <c r="AF20" s="264"/>
-      <c r="AG20" s="265"/>
-      <c r="AH20" s="265"/>
-      <c r="AI20" s="266"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="208"/>
+      <c r="P20" s="209"/>
+      <c r="Q20" s="210"/>
+      <c r="R20" s="211"/>
+      <c r="S20" s="211"/>
+      <c r="T20" s="211"/>
+      <c r="U20" s="211"/>
+      <c r="V20" s="211"/>
+      <c r="W20" s="211"/>
+      <c r="X20" s="211"/>
+      <c r="Y20" s="211"/>
+      <c r="Z20" s="211"/>
+      <c r="AA20" s="211"/>
+      <c r="AB20" s="211"/>
+      <c r="AC20" s="211"/>
+      <c r="AD20" s="211"/>
+      <c r="AE20" s="212"/>
+      <c r="AF20" s="207"/>
+      <c r="AG20" s="208"/>
+      <c r="AH20" s="208"/>
+      <c r="AI20" s="209"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="262"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="263"/>
-      <c r="I21" s="259"/>
-      <c r="J21" s="264"/>
-      <c r="K21" s="265"/>
-      <c r="L21" s="265"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="265"/>
-      <c r="O21" s="265"/>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="267"/>
-      <c r="R21" s="268"/>
-      <c r="S21" s="268"/>
-      <c r="T21" s="268"/>
-      <c r="U21" s="268"/>
-      <c r="V21" s="268"/>
-      <c r="W21" s="268"/>
-      <c r="X21" s="268"/>
-      <c r="Y21" s="268"/>
-      <c r="Z21" s="268"/>
-      <c r="AA21" s="268"/>
-      <c r="AB21" s="268"/>
-      <c r="AC21" s="268"/>
-      <c r="AD21" s="268"/>
-      <c r="AE21" s="269"/>
-      <c r="AF21" s="264"/>
-      <c r="AG21" s="265"/>
-      <c r="AH21" s="265"/>
-      <c r="AI21" s="266"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208"/>
+      <c r="M21" s="208"/>
+      <c r="N21" s="208"/>
+      <c r="O21" s="208"/>
+      <c r="P21" s="209"/>
+      <c r="Q21" s="210"/>
+      <c r="R21" s="211"/>
+      <c r="S21" s="211"/>
+      <c r="T21" s="211"/>
+      <c r="U21" s="211"/>
+      <c r="V21" s="211"/>
+      <c r="W21" s="211"/>
+      <c r="X21" s="211"/>
+      <c r="Y21" s="211"/>
+      <c r="Z21" s="211"/>
+      <c r="AA21" s="211"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="211"/>
+      <c r="AD21" s="211"/>
+      <c r="AE21" s="212"/>
+      <c r="AF21" s="207"/>
+      <c r="AG21" s="208"/>
+      <c r="AH21" s="208"/>
+      <c r="AI21" s="209"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="258"/>
-      <c r="C22" s="259"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="261"/>
-      <c r="F22" s="262"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="263"/>
-      <c r="I22" s="259"/>
-      <c r="J22" s="264"/>
-      <c r="K22" s="265"/>
-      <c r="L22" s="265"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="265"/>
-      <c r="O22" s="265"/>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="267"/>
-      <c r="R22" s="268"/>
-      <c r="S22" s="268"/>
-      <c r="T22" s="268"/>
-      <c r="U22" s="268"/>
-      <c r="V22" s="268"/>
-      <c r="W22" s="268"/>
-      <c r="X22" s="268"/>
-      <c r="Y22" s="268"/>
-      <c r="Z22" s="268"/>
-      <c r="AA22" s="268"/>
-      <c r="AB22" s="268"/>
-      <c r="AC22" s="268"/>
-      <c r="AD22" s="268"/>
-      <c r="AE22" s="269"/>
-      <c r="AF22" s="264"/>
-      <c r="AG22" s="265"/>
-      <c r="AH22" s="265"/>
-      <c r="AI22" s="266"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="208"/>
+      <c r="P22" s="209"/>
+      <c r="Q22" s="210"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="211"/>
+      <c r="T22" s="211"/>
+      <c r="U22" s="211"/>
+      <c r="V22" s="211"/>
+      <c r="W22" s="211"/>
+      <c r="X22" s="211"/>
+      <c r="Y22" s="211"/>
+      <c r="Z22" s="211"/>
+      <c r="AA22" s="211"/>
+      <c r="AB22" s="211"/>
+      <c r="AC22" s="211"/>
+      <c r="AD22" s="211"/>
+      <c r="AE22" s="212"/>
+      <c r="AF22" s="207"/>
+      <c r="AG22" s="208"/>
+      <c r="AH22" s="208"/>
+      <c r="AI22" s="209"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="258"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="261"/>
-      <c r="F23" s="262"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="264"/>
-      <c r="K23" s="265"/>
-      <c r="L23" s="265"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="265"/>
-      <c r="O23" s="265"/>
-      <c r="P23" s="266"/>
-      <c r="Q23" s="267"/>
-      <c r="R23" s="268"/>
-      <c r="S23" s="268"/>
-      <c r="T23" s="268"/>
-      <c r="U23" s="268"/>
-      <c r="V23" s="268"/>
-      <c r="W23" s="268"/>
-      <c r="X23" s="268"/>
-      <c r="Y23" s="268"/>
-      <c r="Z23" s="268"/>
-      <c r="AA23" s="268"/>
-      <c r="AB23" s="268"/>
-      <c r="AC23" s="268"/>
-      <c r="AD23" s="268"/>
-      <c r="AE23" s="269"/>
-      <c r="AF23" s="264"/>
-      <c r="AG23" s="265"/>
-      <c r="AH23" s="265"/>
-      <c r="AI23" s="266"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="208"/>
+      <c r="N23" s="208"/>
+      <c r="O23" s="208"/>
+      <c r="P23" s="209"/>
+      <c r="Q23" s="210"/>
+      <c r="R23" s="211"/>
+      <c r="S23" s="211"/>
+      <c r="T23" s="211"/>
+      <c r="U23" s="211"/>
+      <c r="V23" s="211"/>
+      <c r="W23" s="211"/>
+      <c r="X23" s="211"/>
+      <c r="Y23" s="211"/>
+      <c r="Z23" s="211"/>
+      <c r="AA23" s="211"/>
+      <c r="AB23" s="211"/>
+      <c r="AC23" s="211"/>
+      <c r="AD23" s="211"/>
+      <c r="AE23" s="212"/>
+      <c r="AF23" s="207"/>
+      <c r="AG23" s="208"/>
+      <c r="AH23" s="208"/>
+      <c r="AI23" s="209"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="258"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="261"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="263"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="264"/>
-      <c r="K24" s="265"/>
-      <c r="L24" s="265"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="265"/>
-      <c r="O24" s="265"/>
-      <c r="P24" s="266"/>
-      <c r="Q24" s="267"/>
-      <c r="R24" s="268"/>
-      <c r="S24" s="268"/>
-      <c r="T24" s="268"/>
-      <c r="U24" s="268"/>
-      <c r="V24" s="268"/>
-      <c r="W24" s="268"/>
-      <c r="X24" s="268"/>
-      <c r="Y24" s="268"/>
-      <c r="Z24" s="268"/>
-      <c r="AA24" s="268"/>
-      <c r="AB24" s="268"/>
-      <c r="AC24" s="268"/>
-      <c r="AD24" s="268"/>
-      <c r="AE24" s="269"/>
-      <c r="AF24" s="264"/>
-      <c r="AG24" s="265"/>
-      <c r="AH24" s="265"/>
-      <c r="AI24" s="266"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="208"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="208"/>
+      <c r="P24" s="209"/>
+      <c r="Q24" s="210"/>
+      <c r="R24" s="211"/>
+      <c r="S24" s="211"/>
+      <c r="T24" s="211"/>
+      <c r="U24" s="211"/>
+      <c r="V24" s="211"/>
+      <c r="W24" s="211"/>
+      <c r="X24" s="211"/>
+      <c r="Y24" s="211"/>
+      <c r="Z24" s="211"/>
+      <c r="AA24" s="211"/>
+      <c r="AB24" s="211"/>
+      <c r="AC24" s="211"/>
+      <c r="AD24" s="211"/>
+      <c r="AE24" s="212"/>
+      <c r="AF24" s="207"/>
+      <c r="AG24" s="208"/>
+      <c r="AH24" s="208"/>
+      <c r="AI24" s="209"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="258"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="261"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="263"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="264"/>
-      <c r="K25" s="265"/>
-      <c r="L25" s="265"/>
-      <c r="M25" s="265"/>
-      <c r="N25" s="265"/>
-      <c r="O25" s="265"/>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="267"/>
-      <c r="R25" s="268"/>
-      <c r="S25" s="268"/>
-      <c r="T25" s="268"/>
-      <c r="U25" s="268"/>
-      <c r="V25" s="268"/>
-      <c r="W25" s="268"/>
-      <c r="X25" s="268"/>
-      <c r="Y25" s="268"/>
-      <c r="Z25" s="268"/>
-      <c r="AA25" s="268"/>
-      <c r="AB25" s="268"/>
-      <c r="AC25" s="268"/>
-      <c r="AD25" s="268"/>
-      <c r="AE25" s="269"/>
-      <c r="AF25" s="264"/>
-      <c r="AG25" s="265"/>
-      <c r="AH25" s="265"/>
-      <c r="AI25" s="266"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="208"/>
+      <c r="L25" s="208"/>
+      <c r="M25" s="208"/>
+      <c r="N25" s="208"/>
+      <c r="O25" s="208"/>
+      <c r="P25" s="209"/>
+      <c r="Q25" s="210"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="211"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="211"/>
+      <c r="W25" s="211"/>
+      <c r="X25" s="211"/>
+      <c r="Y25" s="211"/>
+      <c r="Z25" s="211"/>
+      <c r="AA25" s="211"/>
+      <c r="AB25" s="211"/>
+      <c r="AC25" s="211"/>
+      <c r="AD25" s="211"/>
+      <c r="AE25" s="212"/>
+      <c r="AF25" s="207"/>
+      <c r="AG25" s="208"/>
+      <c r="AH25" s="208"/>
+      <c r="AI25" s="209"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="258"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="261"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="264"/>
-      <c r="K26" s="265"/>
-      <c r="L26" s="265"/>
-      <c r="M26" s="265"/>
-      <c r="N26" s="265"/>
-      <c r="O26" s="265"/>
-      <c r="P26" s="266"/>
-      <c r="Q26" s="267"/>
-      <c r="R26" s="268"/>
-      <c r="S26" s="268"/>
-      <c r="T26" s="268"/>
-      <c r="U26" s="268"/>
-      <c r="V26" s="268"/>
-      <c r="W26" s="268"/>
-      <c r="X26" s="268"/>
-      <c r="Y26" s="268"/>
-      <c r="Z26" s="268"/>
-      <c r="AA26" s="268"/>
-      <c r="AB26" s="268"/>
-      <c r="AC26" s="268"/>
-      <c r="AD26" s="268"/>
-      <c r="AE26" s="269"/>
-      <c r="AF26" s="264"/>
-      <c r="AG26" s="265"/>
-      <c r="AH26" s="265"/>
-      <c r="AI26" s="266"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="208"/>
+      <c r="N26" s="208"/>
+      <c r="O26" s="208"/>
+      <c r="P26" s="209"/>
+      <c r="Q26" s="210"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="211"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="211"/>
+      <c r="X26" s="211"/>
+      <c r="Y26" s="211"/>
+      <c r="Z26" s="211"/>
+      <c r="AA26" s="211"/>
+      <c r="AB26" s="211"/>
+      <c r="AC26" s="211"/>
+      <c r="AD26" s="211"/>
+      <c r="AE26" s="212"/>
+      <c r="AF26" s="207"/>
+      <c r="AG26" s="208"/>
+      <c r="AH26" s="208"/>
+      <c r="AI26" s="209"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="261"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="264"/>
-      <c r="K27" s="265"/>
-      <c r="L27" s="265"/>
-      <c r="M27" s="265"/>
-      <c r="N27" s="265"/>
-      <c r="O27" s="265"/>
-      <c r="P27" s="266"/>
-      <c r="Q27" s="267"/>
-      <c r="R27" s="268"/>
-      <c r="S27" s="268"/>
-      <c r="T27" s="268"/>
-      <c r="U27" s="268"/>
-      <c r="V27" s="268"/>
-      <c r="W27" s="268"/>
-      <c r="X27" s="268"/>
-      <c r="Y27" s="268"/>
-      <c r="Z27" s="268"/>
-      <c r="AA27" s="268"/>
-      <c r="AB27" s="268"/>
-      <c r="AC27" s="268"/>
-      <c r="AD27" s="268"/>
-      <c r="AE27" s="269"/>
-      <c r="AF27" s="264"/>
-      <c r="AG27" s="265"/>
-      <c r="AH27" s="265"/>
-      <c r="AI27" s="266"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="207"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="211"/>
+      <c r="S27" s="211"/>
+      <c r="T27" s="211"/>
+      <c r="U27" s="211"/>
+      <c r="V27" s="211"/>
+      <c r="W27" s="211"/>
+      <c r="X27" s="211"/>
+      <c r="Y27" s="211"/>
+      <c r="Z27" s="211"/>
+      <c r="AA27" s="211"/>
+      <c r="AB27" s="211"/>
+      <c r="AC27" s="211"/>
+      <c r="AD27" s="211"/>
+      <c r="AE27" s="212"/>
+      <c r="AF27" s="207"/>
+      <c r="AG27" s="208"/>
+      <c r="AH27" s="208"/>
+      <c r="AI27" s="209"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="259"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="261"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="263"/>
-      <c r="I28" s="259"/>
-      <c r="J28" s="264"/>
-      <c r="K28" s="265"/>
-      <c r="L28" s="265"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="265"/>
-      <c r="O28" s="265"/>
-      <c r="P28" s="266"/>
-      <c r="Q28" s="267"/>
-      <c r="R28" s="268"/>
-      <c r="S28" s="268"/>
-      <c r="T28" s="268"/>
-      <c r="U28" s="268"/>
-      <c r="V28" s="268"/>
-      <c r="W28" s="268"/>
-      <c r="X28" s="268"/>
-      <c r="Y28" s="268"/>
-      <c r="Z28" s="268"/>
-      <c r="AA28" s="268"/>
-      <c r="AB28" s="268"/>
-      <c r="AC28" s="268"/>
-      <c r="AD28" s="268"/>
-      <c r="AE28" s="269"/>
-      <c r="AF28" s="264"/>
-      <c r="AG28" s="265"/>
-      <c r="AH28" s="265"/>
-      <c r="AI28" s="266"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="208"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="210"/>
+      <c r="R28" s="211"/>
+      <c r="S28" s="211"/>
+      <c r="T28" s="211"/>
+      <c r="U28" s="211"/>
+      <c r="V28" s="211"/>
+      <c r="W28" s="211"/>
+      <c r="X28" s="211"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="211"/>
+      <c r="AB28" s="211"/>
+      <c r="AC28" s="211"/>
+      <c r="AD28" s="211"/>
+      <c r="AE28" s="212"/>
+      <c r="AF28" s="207"/>
+      <c r="AG28" s="208"/>
+      <c r="AH28" s="208"/>
+      <c r="AI28" s="209"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="258"/>
-      <c r="C29" s="259"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="262"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="263"/>
-      <c r="I29" s="259"/>
-      <c r="J29" s="264"/>
-      <c r="K29" s="265"/>
-      <c r="L29" s="265"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="265"/>
-      <c r="O29" s="265"/>
-      <c r="P29" s="266"/>
-      <c r="Q29" s="267"/>
-      <c r="R29" s="268"/>
-      <c r="S29" s="268"/>
-      <c r="T29" s="268"/>
-      <c r="U29" s="268"/>
-      <c r="V29" s="268"/>
-      <c r="W29" s="268"/>
-      <c r="X29" s="268"/>
-      <c r="Y29" s="268"/>
-      <c r="Z29" s="268"/>
-      <c r="AA29" s="268"/>
-      <c r="AB29" s="268"/>
-      <c r="AC29" s="268"/>
-      <c r="AD29" s="268"/>
-      <c r="AE29" s="269"/>
-      <c r="AF29" s="264"/>
-      <c r="AG29" s="265"/>
-      <c r="AH29" s="265"/>
-      <c r="AI29" s="266"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="208"/>
+      <c r="M29" s="208"/>
+      <c r="N29" s="208"/>
+      <c r="O29" s="208"/>
+      <c r="P29" s="209"/>
+      <c r="Q29" s="210"/>
+      <c r="R29" s="211"/>
+      <c r="S29" s="211"/>
+      <c r="T29" s="211"/>
+      <c r="U29" s="211"/>
+      <c r="V29" s="211"/>
+      <c r="W29" s="211"/>
+      <c r="X29" s="211"/>
+      <c r="Y29" s="211"/>
+      <c r="Z29" s="211"/>
+      <c r="AA29" s="211"/>
+      <c r="AB29" s="211"/>
+      <c r="AC29" s="211"/>
+      <c r="AD29" s="211"/>
+      <c r="AE29" s="212"/>
+      <c r="AF29" s="207"/>
+      <c r="AG29" s="208"/>
+      <c r="AH29" s="208"/>
+      <c r="AI29" s="209"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="259"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="261"/>
-      <c r="F30" s="262"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="263"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="264"/>
-      <c r="K30" s="265"/>
-      <c r="L30" s="265"/>
-      <c r="M30" s="265"/>
-      <c r="N30" s="265"/>
-      <c r="O30" s="265"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="268"/>
-      <c r="S30" s="268"/>
-      <c r="T30" s="268"/>
-      <c r="U30" s="268"/>
-      <c r="V30" s="268"/>
-      <c r="W30" s="268"/>
-      <c r="X30" s="268"/>
-      <c r="Y30" s="268"/>
-      <c r="Z30" s="268"/>
-      <c r="AA30" s="268"/>
-      <c r="AB30" s="268"/>
-      <c r="AC30" s="268"/>
-      <c r="AD30" s="268"/>
-      <c r="AE30" s="269"/>
-      <c r="AF30" s="264"/>
-      <c r="AG30" s="265"/>
-      <c r="AH30" s="265"/>
-      <c r="AI30" s="266"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="208"/>
+      <c r="N30" s="208"/>
+      <c r="O30" s="208"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="210"/>
+      <c r="R30" s="211"/>
+      <c r="S30" s="211"/>
+      <c r="T30" s="211"/>
+      <c r="U30" s="211"/>
+      <c r="V30" s="211"/>
+      <c r="W30" s="211"/>
+      <c r="X30" s="211"/>
+      <c r="Y30" s="211"/>
+      <c r="Z30" s="211"/>
+      <c r="AA30" s="211"/>
+      <c r="AB30" s="211"/>
+      <c r="AC30" s="211"/>
+      <c r="AD30" s="211"/>
+      <c r="AE30" s="212"/>
+      <c r="AF30" s="207"/>
+      <c r="AG30" s="208"/>
+      <c r="AH30" s="208"/>
+      <c r="AI30" s="209"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="259"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="262"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="263"/>
-      <c r="I31" s="259"/>
-      <c r="J31" s="264"/>
-      <c r="K31" s="265"/>
-      <c r="L31" s="265"/>
-      <c r="M31" s="265"/>
-      <c r="N31" s="265"/>
-      <c r="O31" s="265"/>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="267"/>
-      <c r="R31" s="268"/>
-      <c r="S31" s="268"/>
-      <c r="T31" s="268"/>
-      <c r="U31" s="268"/>
-      <c r="V31" s="268"/>
-      <c r="W31" s="268"/>
-      <c r="X31" s="268"/>
-      <c r="Y31" s="268"/>
-      <c r="Z31" s="268"/>
-      <c r="AA31" s="268"/>
-      <c r="AB31" s="268"/>
-      <c r="AC31" s="268"/>
-      <c r="AD31" s="268"/>
-      <c r="AE31" s="269"/>
-      <c r="AF31" s="264"/>
-      <c r="AG31" s="265"/>
-      <c r="AH31" s="265"/>
-      <c r="AI31" s="266"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="201"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="208"/>
+      <c r="M31" s="208"/>
+      <c r="N31" s="208"/>
+      <c r="O31" s="208"/>
+      <c r="P31" s="209"/>
+      <c r="Q31" s="210"/>
+      <c r="R31" s="211"/>
+      <c r="S31" s="211"/>
+      <c r="T31" s="211"/>
+      <c r="U31" s="211"/>
+      <c r="V31" s="211"/>
+      <c r="W31" s="211"/>
+      <c r="X31" s="211"/>
+      <c r="Y31" s="211"/>
+      <c r="Z31" s="211"/>
+      <c r="AA31" s="211"/>
+      <c r="AB31" s="211"/>
+      <c r="AC31" s="211"/>
+      <c r="AD31" s="211"/>
+      <c r="AE31" s="212"/>
+      <c r="AF31" s="207"/>
+      <c r="AG31" s="208"/>
+      <c r="AH31" s="208"/>
+      <c r="AI31" s="209"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="259"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="263"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="264"/>
-      <c r="K32" s="270"/>
-      <c r="L32" s="265"/>
-      <c r="M32" s="265"/>
-      <c r="N32" s="265"/>
-      <c r="O32" s="265"/>
-      <c r="P32" s="266"/>
-      <c r="Q32" s="267"/>
-      <c r="R32" s="268"/>
-      <c r="S32" s="268"/>
-      <c r="T32" s="268"/>
-      <c r="U32" s="268"/>
-      <c r="V32" s="268"/>
-      <c r="W32" s="268"/>
-      <c r="X32" s="268"/>
-      <c r="Y32" s="268"/>
-      <c r="Z32" s="268"/>
-      <c r="AA32" s="268"/>
-      <c r="AB32" s="268"/>
-      <c r="AC32" s="268"/>
-      <c r="AD32" s="268"/>
-      <c r="AE32" s="269"/>
-      <c r="AF32" s="264"/>
-      <c r="AG32" s="265"/>
-      <c r="AH32" s="265"/>
-      <c r="AI32" s="266"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="208"/>
+      <c r="M32" s="208"/>
+      <c r="N32" s="208"/>
+      <c r="O32" s="208"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="210"/>
+      <c r="R32" s="211"/>
+      <c r="S32" s="211"/>
+      <c r="T32" s="211"/>
+      <c r="U32" s="211"/>
+      <c r="V32" s="211"/>
+      <c r="W32" s="211"/>
+      <c r="X32" s="211"/>
+      <c r="Y32" s="211"/>
+      <c r="Z32" s="211"/>
+      <c r="AA32" s="211"/>
+      <c r="AB32" s="211"/>
+      <c r="AC32" s="211"/>
+      <c r="AD32" s="211"/>
+      <c r="AE32" s="212"/>
+      <c r="AF32" s="207"/>
+      <c r="AG32" s="208"/>
+      <c r="AH32" s="208"/>
+      <c r="AI32" s="209"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="258"/>
-      <c r="C33" s="259"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="263"/>
-      <c r="I33" s="259"/>
-      <c r="J33" s="264"/>
-      <c r="K33" s="265"/>
-      <c r="L33" s="265"/>
-      <c r="M33" s="265"/>
-      <c r="N33" s="265"/>
-      <c r="O33" s="265"/>
-      <c r="P33" s="266"/>
-      <c r="Q33" s="267"/>
-      <c r="R33" s="268"/>
-      <c r="S33" s="268"/>
-      <c r="T33" s="268"/>
-      <c r="U33" s="268"/>
-      <c r="V33" s="268"/>
-      <c r="W33" s="268"/>
-      <c r="X33" s="268"/>
-      <c r="Y33" s="268"/>
-      <c r="Z33" s="268"/>
-      <c r="AA33" s="268"/>
-      <c r="AB33" s="268"/>
-      <c r="AC33" s="268"/>
-      <c r="AD33" s="268"/>
-      <c r="AE33" s="269"/>
-      <c r="AF33" s="264"/>
-      <c r="AG33" s="265"/>
-      <c r="AH33" s="265"/>
-      <c r="AI33" s="266"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="201"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="208"/>
+      <c r="L33" s="208"/>
+      <c r="M33" s="208"/>
+      <c r="N33" s="208"/>
+      <c r="O33" s="208"/>
+      <c r="P33" s="209"/>
+      <c r="Q33" s="210"/>
+      <c r="R33" s="211"/>
+      <c r="S33" s="211"/>
+      <c r="T33" s="211"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="211"/>
+      <c r="W33" s="211"/>
+      <c r="X33" s="211"/>
+      <c r="Y33" s="211"/>
+      <c r="Z33" s="211"/>
+      <c r="AA33" s="211"/>
+      <c r="AB33" s="211"/>
+      <c r="AC33" s="211"/>
+      <c r="AD33" s="211"/>
+      <c r="AE33" s="212"/>
+      <c r="AF33" s="207"/>
+      <c r="AG33" s="208"/>
+      <c r="AH33" s="208"/>
+      <c r="AI33" s="209"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15346,6 +15132,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -26620,7 +26561,7 @@
       <c r="Q25" s="116"/>
       <c r="R25" s="50"/>
     </row>
-    <row r="26" spans="1:18" ht="22.5">
+    <row r="26" spans="1:18">
       <c r="A26" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
@@ -27056,7 +26997,7 @@
       <c r="Q37" s="116"/>
       <c r="R37" s="50"/>
     </row>
-    <row r="38" spans="1:18" ht="33.75">
+    <row r="38" spans="1:18" ht="22.5">
       <c r="A38" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -27091,7 +27032,7 @@
       <c r="Q38" s="116"/>
       <c r="R38" s="50"/>
     </row>
-    <row r="39" spans="1:18" ht="33.75">
+    <row r="39" spans="1:18" ht="22.5">
       <c r="A39" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -27165,7 +27106,7 @@
       <c r="Q40" s="116"/>
       <c r="R40" s="50"/>
     </row>
-    <row r="41" spans="1:18" ht="22.5">
+    <row r="41" spans="1:18">
       <c r="A41" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -27278,7 +27219,7 @@
       <c r="Q43" s="116"/>
       <c r="R43" s="50"/>
     </row>
-    <row r="44" spans="1:18" ht="33.75">
+    <row r="44" spans="1:18" ht="22.5">
       <c r="A44" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -27385,7 +27326,7 @@
       <c r="Q46" s="116"/>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" spans="1:18" ht="33.75">
+    <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -27704,7 +27645,7 @@
       <c r="Q55" s="116"/>
       <c r="R55" s="50"/>
     </row>
-    <row r="56" spans="1:18" ht="45">
+    <row r="56" spans="1:18" ht="33.75">
       <c r="A56" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -27741,7 +27682,7 @@
       <c r="Q56" s="116"/>
       <c r="R56" s="50"/>
     </row>
-    <row r="57" spans="1:18" ht="33.75">
+    <row r="57" spans="1:18" ht="22.5">
       <c r="A57" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -28066,7 +28007,7 @@
       <c r="Q65" s="116"/>
       <c r="R65" s="50"/>
     </row>
-    <row r="66" spans="1:18" ht="45">
+    <row r="66" spans="1:18" ht="33.75">
       <c r="A66" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -28350,7 +28291,7 @@
       <c r="Q73" s="116"/>
       <c r="R73" s="50"/>
     </row>
-    <row r="74" spans="1:18" ht="22.5">
+    <row r="74" spans="1:18">
       <c r="A74" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -28420,7 +28361,7 @@
       <c r="Q75" s="116"/>
       <c r="R75" s="50"/>
     </row>
-    <row r="76" spans="1:18" ht="22.5">
+    <row r="76" spans="1:18">
       <c r="A76" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -28455,7 +28396,7 @@
       <c r="Q76" s="116"/>
       <c r="R76" s="50"/>
     </row>
-    <row r="77" spans="1:18" ht="33.75">
+    <row r="77" spans="1:18" ht="22.5">
       <c r="A77" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -28749,7 +28690,7 @@
       <c r="Q84" s="116"/>
       <c r="R84" s="50"/>
     </row>
-    <row r="85" spans="1:18" ht="22.5">
+    <row r="85" spans="1:18">
       <c r="A85" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -29524,7 +29465,7 @@
       <c r="Q105" s="116"/>
       <c r="R105" s="50"/>
     </row>
-    <row r="106" spans="1:18" ht="22.5">
+    <row r="106" spans="1:18">
       <c r="A106" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -29565,7 +29506,7 @@
       <c r="Q106" s="116"/>
       <c r="R106" s="50"/>
     </row>
-    <row r="107" spans="1:18" ht="22.5">
+    <row r="107" spans="1:18">
       <c r="A107" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -29682,7 +29623,7 @@
       <c r="Q109" s="116"/>
       <c r="R109" s="50"/>
     </row>
-    <row r="110" spans="1:18" ht="22.5">
+    <row r="110" spans="1:18">
       <c r="A110" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -29717,7 +29658,7 @@
       <c r="Q110" s="116"/>
       <c r="R110" s="50"/>
     </row>
-    <row r="111" spans="1:18" ht="33.75">
+    <row r="111" spans="1:18" ht="22.5">
       <c r="A111" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -29797,7 +29738,7 @@
       <c r="Q112" s="116"/>
       <c r="R112" s="50"/>
     </row>
-    <row r="113" spans="1:18" ht="33.75">
+    <row r="113" spans="1:18" ht="22.5">
       <c r="A113" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -29832,7 +29773,7 @@
       <c r="Q113" s="116"/>
       <c r="R113" s="50"/>
     </row>
-    <row r="114" spans="1:18" ht="33.75">
+    <row r="114" spans="1:18" ht="22.5">
       <c r="A114" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -30186,7 +30127,7 @@
       <c r="Q123" s="116"/>
       <c r="R123" s="50"/>
     </row>
-    <row r="124" spans="1:18" ht="45">
+    <row r="124" spans="1:18" ht="33.75">
       <c r="A124" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -30297,7 +30238,7 @@
       <c r="Q126" s="116"/>
       <c r="R126" s="50"/>
     </row>
-    <row r="127" spans="1:18" ht="45">
+    <row r="127" spans="1:18" ht="33.75">
       <c r="A127" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -30338,7 +30279,7 @@
       <c r="Q127" s="116"/>
       <c r="R127" s="50"/>
     </row>
-    <row r="128" spans="1:18" ht="33.75">
+    <row r="128" spans="1:18" ht="22.5">
       <c r="A128" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -30410,7 +30351,7 @@
       <c r="Q129" s="116"/>
       <c r="R129" s="50"/>
     </row>
-    <row r="130" spans="1:18" ht="45">
+    <row r="130" spans="1:18" ht="33.75">
       <c r="A130" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -30525,7 +30466,7 @@
       <c r="Q132" s="116"/>
       <c r="R132" s="50"/>
     </row>
-    <row r="133" spans="1:18" ht="33.75">
+    <row r="133" spans="1:18" ht="22.5">
       <c r="A133" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -31253,7 +31194,7 @@
       <c r="Q152" s="116"/>
       <c r="R152" s="50"/>
     </row>
-    <row r="153" spans="1:18" ht="45">
+    <row r="153" spans="1:18" ht="33.75">
       <c r="A153" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -31498,7 +31439,7 @@
       <c r="Q159" s="116"/>
       <c r="R159" s="50"/>
     </row>
-    <row r="160" spans="1:18" ht="45">
+    <row r="160" spans="1:18" ht="33.75">
       <c r="A160" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -31568,7 +31509,7 @@
       <c r="Q161" s="116"/>
       <c r="R161" s="50"/>
     </row>
-    <row r="162" spans="1:18" ht="22.5">
+    <row r="162" spans="1:18">
       <c r="A162" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -31605,7 +31546,7 @@
       <c r="Q162" s="116"/>
       <c r="R162" s="50"/>
     </row>
-    <row r="163" spans="1:18" ht="22.5">
+    <row r="163" spans="1:18">
       <c r="A163" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -31640,7 +31581,7 @@
       <c r="Q163" s="116"/>
       <c r="R163" s="50"/>
     </row>
-    <row r="164" spans="1:18" ht="33.75">
+    <row r="164" spans="1:18" ht="22.5">
       <c r="A164" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -31922,7 +31863,7 @@
       <c r="Q171" s="116"/>
       <c r="R171" s="50"/>
     </row>
-    <row r="172" spans="1:18" ht="45">
+    <row r="172" spans="1:18" ht="33.75">
       <c r="A172" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -32027,7 +31968,7 @@
       <c r="Q174" s="116"/>
       <c r="R174" s="50"/>
     </row>
-    <row r="175" spans="1:18" ht="45">
+    <row r="175" spans="1:18" ht="33.75">
       <c r="A175" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -32132,7 +32073,7 @@
       <c r="Q177" s="116"/>
       <c r="R177" s="50"/>
     </row>
-    <row r="178" spans="1:18" ht="33.75">
+    <row r="178" spans="1:18" ht="22.5">
       <c r="A178" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -32442,7 +32383,7 @@
       <c r="Q185" s="116"/>
       <c r="R185" s="50"/>
     </row>
-    <row r="186" spans="1:18" ht="33.75">
+    <row r="186" spans="1:18" ht="22.5">
       <c r="A186" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -32479,7 +32420,7 @@
       <c r="Q186" s="116"/>
       <c r="R186" s="50"/>
     </row>
-    <row r="187" spans="1:18" ht="33.75">
+    <row r="187" spans="1:18" ht="22.5">
       <c r="A187" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -32514,7 +32455,7 @@
       <c r="Q187" s="116"/>
       <c r="R187" s="50"/>
     </row>
-    <row r="188" spans="1:18" ht="33.75">
+    <row r="188" spans="1:18" ht="22.5">
       <c r="A188" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -32915,7 +32856,7 @@
       <c r="Q198" s="116"/>
       <c r="R198" s="50"/>
     </row>
-    <row r="199" spans="1:18" ht="22.5">
+    <row r="199" spans="1:18">
       <c r="A199" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -32950,7 +32891,7 @@
       <c r="Q199" s="116"/>
       <c r="R199" s="50"/>
     </row>
-    <row r="200" spans="1:18" ht="22.5">
+    <row r="200" spans="1:18">
       <c r="A200" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -33020,7 +32961,7 @@
       <c r="Q201" s="116"/>
       <c r="R201" s="50"/>
     </row>
-    <row r="202" spans="1:18" ht="45">
+    <row r="202" spans="1:18" ht="33.75">
       <c r="A202" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -33090,7 +33031,7 @@
       <c r="Q203" s="116"/>
       <c r="R203" s="50"/>
     </row>
-    <row r="204" spans="1:18" ht="45">
+    <row r="204" spans="1:18" ht="33.75">
       <c r="A204" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -33374,7 +33315,7 @@
       <c r="Q211" s="116"/>
       <c r="R211" s="50"/>
     </row>
-    <row r="212" spans="1:18" ht="22.5">
+    <row r="212" spans="1:18">
       <c r="A212" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -33409,7 +33350,7 @@
       <c r="Q212" s="116"/>
       <c r="R212" s="50"/>
     </row>
-    <row r="213" spans="1:18" ht="22.5">
+    <row r="213" spans="1:18">
       <c r="A213" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -33444,7 +33385,7 @@
       <c r="Q213" s="116"/>
       <c r="R213" s="50"/>
     </row>
-    <row r="214" spans="1:18" ht="22.5">
+    <row r="214" spans="1:18">
       <c r="A214" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -33549,7 +33490,7 @@
       <c r="Q216" s="116"/>
       <c r="R216" s="50"/>
     </row>
-    <row r="217" spans="1:18" ht="45">
+    <row r="217" spans="1:18" ht="33.75">
       <c r="A217" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -33619,7 +33560,7 @@
       <c r="Q218" s="116"/>
       <c r="R218" s="50"/>
     </row>
-    <row r="219" spans="1:18" ht="45">
+    <row r="219" spans="1:18" ht="33.75">
       <c r="A219" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -33901,7 +33842,7 @@
       <c r="Q226" s="116"/>
       <c r="R226" s="50"/>
     </row>
-    <row r="227" spans="1:18" ht="45">
+    <row r="227" spans="1:18" ht="33.75">
       <c r="A227" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -33936,7 +33877,7 @@
       <c r="Q227" s="116"/>
       <c r="R227" s="50"/>
     </row>
-    <row r="228" spans="1:18" ht="45">
+    <row r="228" spans="1:18" ht="33.75">
       <c r="A228" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -34090,7 +34031,7 @@
       <c r="Q231" s="116"/>
       <c r="R231" s="50"/>
     </row>
-    <row r="232" spans="1:18" ht="22.5">
+    <row r="232" spans="1:18">
       <c r="A232" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -34160,7 +34101,7 @@
       <c r="Q233" s="116"/>
       <c r="R233" s="50"/>
     </row>
-    <row r="234" spans="1:18" ht="22.5">
+    <row r="234" spans="1:18">
       <c r="A234" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -34267,7 +34208,7 @@
       <c r="Q236" s="116"/>
       <c r="R236" s="50"/>
     </row>
-    <row r="237" spans="1:18" ht="33.75">
+    <row r="237" spans="1:18" ht="22.5">
       <c r="A237" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -34302,7 +34243,7 @@
       <c r="Q237" s="116"/>
       <c r="R237" s="50"/>
     </row>
-    <row r="238" spans="1:18" ht="45">
+    <row r="238" spans="1:18" ht="33.75">
       <c r="A238" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -34444,7 +34385,7 @@
       <c r="Q241" s="116"/>
       <c r="R241" s="50"/>
     </row>
-    <row r="242" spans="1:18" ht="45">
+    <row r="242" spans="1:18" ht="33.75">
       <c r="A242" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -34485,7 +34426,7 @@
       <c r="Q242" s="116"/>
       <c r="R242" s="50"/>
     </row>
-    <row r="243" spans="1:18" ht="33.75">
+    <row r="243" spans="1:18" ht="22.5">
       <c r="A243" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -34528,7 +34469,7 @@
       <c r="Q243" s="116"/>
       <c r="R243" s="50"/>
     </row>
-    <row r="244" spans="1:18" ht="33.75">
+    <row r="244" spans="1:18" ht="22.5">
       <c r="A244" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -34935,7 +34876,7 @@
       <c r="Q254" s="116"/>
       <c r="R254" s="50"/>
     </row>
-    <row r="255" spans="1:18" ht="45">
+    <row r="255" spans="1:18" ht="33.75">
       <c r="A255" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -35180,7 +35121,7 @@
       <c r="Q261" s="116"/>
       <c r="R261" s="50"/>
     </row>
-    <row r="262" spans="1:18" ht="45">
+    <row r="262" spans="1:18" ht="33.75">
       <c r="A262" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -35250,7 +35191,7 @@
       <c r="Q263" s="116"/>
       <c r="R263" s="50"/>
     </row>
-    <row r="264" spans="1:18" ht="22.5">
+    <row r="264" spans="1:18">
       <c r="A264" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -35287,7 +35228,7 @@
       <c r="Q264" s="116"/>
       <c r="R264" s="50"/>
     </row>
-    <row r="265" spans="1:18" ht="22.5">
+    <row r="265" spans="1:18">
       <c r="A265" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -35322,7 +35263,7 @@
       <c r="Q265" s="116"/>
       <c r="R265" s="50"/>
     </row>
-    <row r="266" spans="1:18" ht="33.75">
+    <row r="266" spans="1:18" ht="22.5">
       <c r="A266" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -35357,7 +35298,7 @@
       <c r="Q266" s="116"/>
       <c r="R266" s="50"/>
     </row>
-    <row r="267" spans="1:18" ht="22.5">
+    <row r="267" spans="1:18">
       <c r="A267" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -35392,7 +35333,7 @@
       <c r="Q267" s="116"/>
       <c r="R267" s="50"/>
     </row>
-    <row r="268" spans="1:18" ht="22.5">
+    <row r="268" spans="1:18">
       <c r="A268" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -35534,7 +35475,7 @@
       <c r="Q271" s="116"/>
       <c r="R271" s="50"/>
     </row>
-    <row r="272" spans="1:18" ht="45">
+    <row r="272" spans="1:18" ht="33.75">
       <c r="A272" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -35604,7 +35545,7 @@
       <c r="Q273" s="116"/>
       <c r="R273" s="50"/>
     </row>
-    <row r="274" spans="1:18" ht="33.75">
+    <row r="274" spans="1:18" ht="22.5">
       <c r="A274" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -35639,7 +35580,7 @@
       <c r="Q274" s="116"/>
       <c r="R274" s="50"/>
     </row>
-    <row r="275" spans="1:18" ht="45">
+    <row r="275" spans="1:18" ht="33.75">
       <c r="A275" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -36225,7 +36166,7 @@
       <c r="Q290" s="116"/>
       <c r="R290" s="50"/>
     </row>
-    <row r="291" spans="1:18" ht="45">
+    <row r="291" spans="1:18" ht="33.75">
       <c r="A291" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -36625,7 +36566,7 @@
       <c r="Q300" s="166"/>
       <c r="R300" s="174"/>
     </row>
-    <row r="301" spans="1:18" s="34" customFormat="1" ht="45">
+    <row r="301" spans="1:18" s="34" customFormat="1" ht="33.75">
       <c r="A301" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -36660,7 +36601,7 @@
       <c r="Q301" s="144"/>
       <c r="R301" s="175"/>
     </row>
-    <row r="302" spans="1:18" s="34" customFormat="1" ht="33.75">
+    <row r="302" spans="1:18" s="34" customFormat="1" ht="22.5">
       <c r="A302" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
@@ -36785,7 +36726,7 @@
       <c r="Q304" s="166"/>
       <c r="R304" s="174"/>
     </row>
-    <row r="305" spans="1:18" s="34" customFormat="1" ht="45">
+    <row r="305" spans="1:18" s="34" customFormat="1" ht="33.75">
       <c r="A305" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -36855,7 +36796,7 @@
       <c r="Q306" s="147"/>
       <c r="R306" s="176"/>
     </row>
-    <row r="307" spans="1:18" s="34" customFormat="1" ht="45">
+    <row r="307" spans="1:18" s="34" customFormat="1" ht="33.75">
       <c r="A307" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
@@ -36925,7 +36866,7 @@
       <c r="Q308" s="147"/>
       <c r="R308" s="176"/>
     </row>
-    <row r="309" spans="1:18" s="34" customFormat="1" ht="45">
+    <row r="309" spans="1:18" s="34" customFormat="1" ht="33.75">
       <c r="A309" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
